--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -79,163 +79,163 @@
     <t>19</t>
   </si>
   <si>
-    <t>69</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>332</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>359</t>
+    <t>221</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>363</t>
   </si>
   <si>
     <t>93</t>
@@ -301,13 +301,13 @@
     <t>8000.00</t>
   </si>
   <si>
-    <t>154393.00</t>
-  </si>
-  <si>
-    <t>822033.00</t>
-  </si>
-  <si>
-    <t>355000.00</t>
+    <t>156393.00</t>
+  </si>
+  <si>
+    <t>824033.00</t>
+  </si>
+  <si>
+    <t>357000.00</t>
   </si>
   <si>
     <t>125545.00</t>
@@ -316,162 +316,165 @@
     <t>23850.00</t>
   </si>
   <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>91500.00</t>
+  </si>
+  <si>
+    <t>636821.59</t>
+  </si>
+  <si>
+    <t>275500.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>277336.66</t>
+  </si>
+  <si>
+    <t>171500.00</t>
+  </si>
+  <si>
+    <t>56500.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
     <t>14000.00</t>
   </si>
   <si>
-    <t>91500.00</t>
-  </si>
-  <si>
-    <t>636821.59</t>
-  </si>
-  <si>
-    <t>275500.00</t>
-  </si>
-  <si>
-    <t>107000.00</t>
-  </si>
-  <si>
-    <t>23500.00</t>
-  </si>
-  <si>
-    <t>40500.00</t>
-  </si>
-  <si>
-    <t>241336.66</t>
-  </si>
-  <si>
-    <t>145000.00</t>
+    <t>137000.00</t>
+  </si>
+  <si>
+    <t>881713.00</t>
+  </si>
+  <si>
+    <t>386000.00</t>
+  </si>
+  <si>
+    <t>195474.00</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>42500.00</t>
+  </si>
+  <si>
+    <t>270500.00</t>
+  </si>
+  <si>
+    <t>177200.00</t>
+  </si>
+  <si>
+    <t>52495.14</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>46500.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>109500.00</t>
+  </si>
+  <si>
+    <t>881500.00</t>
+  </si>
+  <si>
+    <t>522000.00</t>
+  </si>
+  <si>
+    <t>191377.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>354000.00</t>
+  </si>
+  <si>
+    <t>210500.00</t>
+  </si>
+  <si>
+    <t>97500.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>149000.00</t>
+  </si>
+  <si>
+    <t>611981.79</t>
+  </si>
+  <si>
+    <t>304121.81</t>
+  </si>
+  <si>
+    <t>92441.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>385713.00</t>
+  </si>
+  <si>
+    <t>1660416.83</t>
+  </si>
+  <si>
+    <t>774400.00</t>
+  </si>
+  <si>
+    <t>296000.00</t>
+  </si>
+  <si>
+    <t>53883.20</t>
+  </si>
+  <si>
+    <t>31500.00</t>
+  </si>
+  <si>
+    <t>354500.00</t>
+  </si>
+  <si>
+    <t>1795698.76</t>
+  </si>
+  <si>
+    <t>841160.00</t>
+  </si>
+  <si>
+    <t>329120.07</t>
   </si>
   <si>
     <t>48000.00</t>
   </si>
   <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>137000.00</t>
-  </si>
-  <si>
-    <t>881713.00</t>
-  </si>
-  <si>
-    <t>382500.00</t>
-  </si>
-  <si>
-    <t>195474.00</t>
-  </si>
-  <si>
-    <t>43500.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>42500.00</t>
-  </si>
-  <si>
-    <t>270500.00</t>
-  </si>
-  <si>
-    <t>177200.00</t>
-  </si>
-  <si>
-    <t>52495.14</t>
-  </si>
-  <si>
-    <t>34500.00</t>
-  </si>
-  <si>
-    <t>46500.00</t>
-  </si>
-  <si>
-    <t>9500.00</t>
-  </si>
-  <si>
-    <t>12500.00</t>
-  </si>
-  <si>
-    <t>29500.00</t>
-  </si>
-  <si>
-    <t>109500.00</t>
-  </si>
-  <si>
-    <t>881500.00</t>
-  </si>
-  <si>
-    <t>514000.00</t>
-  </si>
-  <si>
-    <t>191377.00</t>
-  </si>
-  <si>
-    <t>55000.00</t>
-  </si>
-  <si>
-    <t>39000.00</t>
-  </si>
-  <si>
-    <t>354000.00</t>
-  </si>
-  <si>
-    <t>210500.00</t>
-  </si>
-  <si>
-    <t>97500.00</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>139000.00</t>
-  </si>
-  <si>
-    <t>604481.79</t>
-  </si>
-  <si>
-    <t>290121.81</t>
-  </si>
-  <si>
-    <t>92441.00</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>385713.00</t>
-  </si>
-  <si>
-    <t>1660416.83</t>
-  </si>
-  <si>
-    <t>774400.00</t>
-  </si>
-  <si>
-    <t>296000.00</t>
-  </si>
-  <si>
-    <t>53883.20</t>
-  </si>
-  <si>
-    <t>31500.00</t>
-  </si>
-  <si>
-    <t>354500.00</t>
-  </si>
-  <si>
-    <t>1795698.76</t>
-  </si>
-  <si>
-    <t>841160.00</t>
-  </si>
-  <si>
-    <t>329120.07</t>
-  </si>
-  <si>
     <t>34000.00</t>
   </si>
   <si>
@@ -490,16 +493,13 @@
     <t>22500.00</t>
   </si>
   <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>491390.00</t>
-  </si>
-  <si>
-    <t>2294295.00</t>
-  </si>
-  <si>
-    <t>1108531.50</t>
+    <t>505390.00</t>
+  </si>
+  <si>
+    <t>2324295.00</t>
+  </si>
+  <si>
+    <t>1122531.50</t>
   </si>
   <si>
     <t>347000.00</t>
@@ -1162,7 +1162,7 @@
         <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>201</v>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>119</v>
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
@@ -2034,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>123</v>
@@ -2138,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>122</v>
@@ -2190,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>126</v>
@@ -2320,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
         <v>131</v>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>87</v>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
         <v>132</v>
@@ -2476,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
         <v>136</v>
@@ -2736,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
         <v>146</v>
@@ -2762,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
         <v>147</v>
@@ -2892,10 +2892,10 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
         <v>176</v>
@@ -2921,7 +2921,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>176</v>
@@ -2947,7 +2947,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
         <v>177</v>
@@ -2970,10 +2970,10 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
         <v>177</v>
@@ -2996,10 +2996,10 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
         <v>177</v>
@@ -3025,7 +3025,7 @@
         <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
         <v>177</v>
@@ -3051,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>177</v>
@@ -3074,10 +3074,10 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
         <v>177</v>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,12 +489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>326000.00</t>
+          <t>330000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +531,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2008462.82</t>
+          <t>2010761.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75000.00</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54000.00</t>
+          <t>66000.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +825,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>532990.66</t>
+          <t>565990.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +867,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>292891.77</t>
+          <t>314891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +909,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83500.00</t>
+          <t>94000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>111500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>328600.00</t>
+          <t>332600.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1387,12 +1455,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1723,12 +1791,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1020811.79</t>
+          <t>1026811.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3361,12 +3429,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1888946.83</t>
+          <t>1892946.83</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3513,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>331500.00</t>
+          <t>335000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3823,12 +3891,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>171200.00</t>
+          <t>173200.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3933,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>807472.09</t>
+          <t>814972.09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3975,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>409192.00</t>
+          <t>414192.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +4017,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>138209.01</t>
+          <t>141709.01</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +4059,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>828</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2088138.52</t>
+          <t>2154538.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1127144.92</t>
+          <t>1175844.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88500.00</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>973879.16</t>
+          <t>1018417.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>433500.00</t>
+          <t>443500.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>714252.59</t>
+          <t>755836.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>170320.00</t>
+          <t>172320.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1066800.79</t>
+          <t>1069926.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>492926.95</t>
+          <t>556426.95</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>223974.00</t>
+          <t>233974.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>134736.00</t>
+          <t>152736.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1069869.13</t>
+          <t>1127935.90</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>574000.00</t>
+          <t>587500.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>227877.00</t>
+          <t>247877.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>429326.09</t>
+          <t>433326.09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>754</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1896446.83</t>
+          <t>2027256.67</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>918007.79</t>
+          <t>948266.79</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>335000.00</t>
+          <t>345000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>83883.20</t>
+          <t>93883.20</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>335600.00</t>
+          <t>341600.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>837</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2154538.52</t>
+          <t>2221538.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1175844.92</t>
+          <t>1185844.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>111500.00</t>
+          <t>115500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>755836.59</t>
+          <t>791242.04</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>109000.00</t>
+          <t>122500.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>25500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92230.92</t>
+          <t>135903.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>67880.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>55697.00</t>
+          <t>88197.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>152736.00</t>
+          <t>165636.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1127935.90</t>
+          <t>1195175.06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>587500.00</t>
+          <t>650061.15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>247877.00</t>
+          <t>257877.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>26720.65</t>
+          <t>28720.65</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2481</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5814748.44</t>
+          <t>5816748.44</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1526075.00</t>
+          <t>1536075.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>354000.00</t>
+          <t>356000.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>433326.09</t>
+          <t>454326.09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>763</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2027256.67</t>
+          <t>2093563.23</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>948266.79</t>
+          <t>973266.79</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>345000.00</t>
+          <t>348000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>93883.20</t>
+          <t>105383.20</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>73500.00</t>
+          <t>82250.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>592490.66</t>
+          <t>631590.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>330891.77</t>
+          <t>334891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>191352.38</t>
+          <t>204152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1018417.16</t>
+          <t>1041917.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>443500.00</t>
+          <t>453500.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>146045.00</t>
+          <t>156045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60350.00</t>
+          <t>63850.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>25500.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>135903.07</t>
+          <t>137903.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>165636.00</t>
+          <t>192718.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1195175.06</t>
+          <t>1309380.59</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>650061.15</t>
+          <t>695300.15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>257877.00</t>
+          <t>279851.23</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>90000.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28720.65</t>
+          <t>30720.65</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5816748.44</t>
+          <t>5818748.44</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3716348.00</t>
+          <t>3721348.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>454326.09</t>
+          <t>478326.09</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2093563.23</t>
+          <t>2135863.23</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>973266.79</t>
+          <t>993266.79</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>348000.00</t>
+          <t>364100.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>105383.20</t>
+          <t>115383.20</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>399500.00</t>
+          <t>403500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1886198.76</t>
+          <t>1892198.76</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>82250.00</t>
+          <t>92250.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>631590.66</t>
+          <t>750493.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>334891.77</t>
+          <t>396891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1041917.16</t>
+          <t>1051917.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>453500.00</t>
+          <t>463500.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>63850.00</t>
+          <t>73850.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>115500.00</t>
+          <t>117500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>332600.00</t>
+          <t>342600.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1069926.79</t>
+          <t>1083926.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>75500.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>29500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>137903.07</t>
+          <t>184122.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>67880.00</t>
+          <t>100780.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>88197.00</t>
+          <t>138197.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,32 +2353,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>192718.00</t>
+          <t>9850.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1309380.59</t>
+          <t>208718.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>695300.15</t>
+          <t>1401386.20</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>279851.23</t>
+          <t>721186.15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>90000.00</t>
+          <t>329851.23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>30720.65</t>
+          <t>106500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,32 +2605,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1125003.00</t>
+          <t>30720.65</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5818748.44</t>
+          <t>1128503.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3721348.00</t>
+          <t>5818748.44</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1536075.00</t>
+          <t>3721348.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>194511.00</t>
+          <t>1536075.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>356000.00</t>
+          <t>194511.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,32 +2857,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>53984.00</t>
+          <t>356000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>404500.00</t>
+          <t>53984.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>259500.00</t>
+          <t>404500.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>259500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>109500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,32 +3067,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>164500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>671981.79</t>
+          <t>164500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>347121.81</t>
+          <t>671981.79</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>97441.00</t>
+          <t>347121.81</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>97441.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>478326.09</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2135863.23</t>
+          <t>478326.09</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>993266.79</t>
+          <t>2135863.23</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>364100.00</t>
+          <t>993266.79</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>115383.20</t>
+          <t>364100.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>115383.20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>403500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1892198.76</t>
+          <t>403500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>852160.00</t>
+          <t>1892198.76</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>852160.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>336120.07</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>188800.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>941461.09</t>
+          <t>204800.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>485115.91</t>
+          <t>981133.09</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>175209.01</t>
+          <t>527115.91</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>195209.01</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>497390.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2318795.00</t>
+          <t>541202.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1132531.50</t>
+          <t>2632012.94</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>354000.00</t>
+          <t>1264538.42</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>68319.00</t>
+          <t>374000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>95000.00</t>
+          <t>95157.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,10 +4305,52 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>103000.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>204152.38</t>
+          <t>208152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1051917.16</t>
+          <t>1082131.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>463500.00</t>
+          <t>493370.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>156045.00</t>
+          <t>166045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>73850.00</t>
+          <t>77350.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1083926.79</t>
+          <t>1099926.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>184122.07</t>
+          <t>194122.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>208718.00</t>
+          <t>210718.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1401386.20</t>
+          <t>1424902.09</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>721186.15</t>
+          <t>754686.15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>329851.23</t>
+          <t>339851.23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>30720.65</t>
+          <t>32720.65</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1128503.00</t>
+          <t>1255765.96</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5818748.44</t>
+          <t>7043170.24</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3721348.00</t>
+          <t>4368431.22</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1536075.00</t>
+          <t>1827567.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>194511.00</t>
+          <t>349511.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>356000.00</t>
+          <t>453423.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>478326.09</t>
+          <t>494326.09</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>786</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2135863.23</t>
+          <t>2230968.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>993266.79</t>
+          <t>1063266.79</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>364100.00</t>
+          <t>384100.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>115383.20</t>
+          <t>120383.20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>541202.00</t>
+          <t>568542.27</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2632012.94</t>
+          <t>2840469.18</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1264538.42</t>
+          <t>1311038.42</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>374000.00</t>
+          <t>414000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>95157.00</t>
+          <t>105157.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>282500.00</t>
+          <t>296500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>29500.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>194122.07</t>
+          <t>206122.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>100780.00</t>
+          <t>104780.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9850.00</t>
+          <t>11850.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>210718.00</t>
+          <t>225937.17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1424902.09</t>
+          <t>1496439.78</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>754686.15</t>
+          <t>784686.15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>339851.23</t>
+          <t>354851.23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106500.00</t>
+          <t>116500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>32720.65</t>
+          <t>40720.65</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1255765.96</t>
+          <t>1297941.26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7043170.24</t>
+          <t>7189899.28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4368431.22</t>
+          <t>4498315.29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1827567.00</t>
+          <t>1892067.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>349511.00</t>
+          <t>359511.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>453423.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>53984.00</t>
+          <t>461423.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>404500.00</t>
+          <t>53984.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>259500.00</t>
+          <t>404500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>259500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>109500.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,32 +3109,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>164500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>671981.79</t>
+          <t>164500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>347121.81</t>
+          <t>671981.79</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>97441.00</t>
+          <t>347121.81</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>97441.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>494326.09</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2230968.70</t>
+          <t>494326.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>790</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1063266.79</t>
+          <t>2254968.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>384100.00</t>
+          <t>1073266.79</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>120383.20</t>
+          <t>387484.52</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>120383.20</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>403500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1892198.76</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>852160.00</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>336120.07</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>48000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,32 +3865,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>204800.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>981133.09</t>
+          <t>204800.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>527115.91</t>
+          <t>981133.09</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>195209.01</t>
+          <t>527115.91</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>195209.01</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>568542.27</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2840469.18</t>
+          <t>568542.27</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1311038.42</t>
+          <t>2840469.18</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>414000.00</t>
+          <t>1311038.42</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>105157.00</t>
+          <t>414000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,30 +4327,72 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>105157.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>103000.00</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -66,74 +66,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -531,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>845</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2221538.52</t>
+          <t>2266838.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -573,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1185844.92</t>
+          <t>1199844.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -615,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>347982.09</t>
+          <t>357982.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -741,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56000.00</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92250.00</t>
+          <t>99750.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>750493.95</t>
+          <t>857190.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -867,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>396891.77</t>
+          <t>466891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -909,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>113000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -993,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1035,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>208152.38</t>
+          <t>210152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1077,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1082131.65</t>
+          <t>1145323.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1119,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>493370.00</t>
+          <t>527370.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1161,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>166045.00</t>
+          <t>176045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1203,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>77350.00</t>
+          <t>79716.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1245,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>26621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1749,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>172320.00</t>
+          <t>186320.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1791,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1099926.79</t>
+          <t>1146397.87</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1833,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>556426.95</t>
+          <t>644893.85</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1875,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>233974.00</t>
+          <t>263974.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1917,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>75500.00</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2001,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>50500.00</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2043,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>296500.00</t>
+          <t>306500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2085,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>186700.00</t>
+          <t>200200.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2211,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>54500.00</t>
+          <t>58500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2757,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7189899.28</t>
+          <t>7191899.28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3471,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>494326.09</t>
+          <t>496326.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3513,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2254968.70</t>
+          <t>2280968.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4059,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>527115.91</t>
+          <t>537115.91</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4227,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>568542.27</t>
+          <t>616045.27</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4269,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2840469.18</t>
+          <t>2990806.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4311,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1311038.42</t>
+          <t>1399131.02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4353,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>414000.00</t>
+          <t>426000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4395,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>105157.00</t>
+          <t>115157.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4437,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>103000.00</t>
+          <t>107000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>124500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>791242.04</t>
+          <t>844773.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>342600.00</t>
+          <t>383337.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>122500.00</t>
+          <t>150233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>186320.00</t>
+          <t>190320.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1146397.87</t>
+          <t>1168397.87</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>644893.85</t>
+          <t>723340.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>263974.00</t>
+          <t>288974.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>110500.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>61121.84</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>206122.07</t>
+          <t>211622.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>104780.00</t>
+          <t>141780.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>225937.17</t>
+          <t>227937.17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1496439.78</t>
+          <t>1525232.54</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>784686.15</t>
+          <t>841064.15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>496326.09</t>
+          <t>498326.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2280968.70</t>
+          <t>2306575.70</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>387484.52</t>
+          <t>397484.52</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>120383.20</t>
+          <t>130383.20</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>204800.00</t>
+          <t>208800.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>981133.09</t>
+          <t>1064760.67</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>537115.91</t>
+          <t>610292.91</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2990806.10</t>
+          <t>3005806.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1399131.02</t>
+          <t>1409131.02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99750.00</t>
+          <t>113250.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>857190.85</t>
+          <t>938531.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>466891.77</t>
+          <t>500391.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1168397.87</t>
+          <t>1192724.87</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>723340.11</t>
+          <t>743340.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>288974.00</t>
+          <t>298974.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>110500.00</t>
+          <t>130500.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>227937.17</t>
+          <t>231937.17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1525232.54</t>
+          <t>1575250.52</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>841064.15</t>
+          <t>853660.65</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>354851.23</t>
+          <t>380878.23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>116500.00</t>
+          <t>121521.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>40720.65</t>
+          <t>42720.65</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>461423.00</t>
+          <t>463423.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>53984.00</t>
+          <t>57984.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>404500.00</t>
+          <t>450800.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>259500.00</t>
+          <t>274500.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>109500.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>164500.00</t>
+          <t>208542.41</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>671981.79</t>
+          <t>1006792.54</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>347121.81</t>
+          <t>482662.18</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>97441.00</t>
+          <t>160849.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21000.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>498326.09</t>
+          <t>514326.09</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2306575.70</t>
+          <t>2371725.56</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1073266.79</t>
+          <t>1083266.79</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>397484.52</t>
+          <t>417484.52</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>49500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>113000.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>844773.99</t>
+          <t>880773.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>383337.00</t>
+          <t>403337.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>150233.00</t>
+          <t>160233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1429,32 +1429,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>79000.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>303336.66</t>
+          <t>79000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>152500.00</t>
+          <t>303336.66</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46500.00</t>
+          <t>152500.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>46500.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1681,32 +1681,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>190320.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1192724.87</t>
+          <t>190320.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>743340.11</t>
+          <t>1242244.87</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>298974.00</t>
+          <t>766840.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>130500.00</t>
+          <t>298974.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>130500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1933,32 +1933,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>306500.00</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>200200.00</t>
+          <t>306500.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>55995.14</t>
+          <t>200200.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>34500.00</t>
+          <t>55995.14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>58500.00</t>
+          <t>34500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2185,32 +2185,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>61121.84</t>
+          <t>58500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>211622.07</t>
+          <t>66621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>141780.00</t>
+          <t>227122.07</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>138197.00</t>
+          <t>151348.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11850.00</t>
+          <t>140197.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2395,32 +2395,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>231937.17</t>
+          <t>13850.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1575250.52</t>
+          <t>231937.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>853660.65</t>
+          <t>1575250.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>380878.23</t>
+          <t>853660.65</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>121521.00</t>
+          <t>380878.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>42720.65</t>
+          <t>121521.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2647,32 +2647,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1297941.26</t>
+          <t>42720.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7191899.28</t>
+          <t>1297941.26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4498315.29</t>
+          <t>7191899.28</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1892067.00</t>
+          <t>4498315.29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>359511.00</t>
+          <t>1892067.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>359511.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>463423.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>57984.00</t>
+          <t>463423.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>450800.00</t>
+          <t>61984.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>274500.00</t>
+          <t>473300.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>280000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>208542.41</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1006792.54</t>
+          <t>208542.41</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>482662.18</t>
+          <t>1006792.54</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>160849.00</t>
+          <t>482662.18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>41000.00</t>
+          <t>160849.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>41000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,32 +3403,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>514326.09</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2371725.56</t>
+          <t>518326.09</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>815</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1083266.79</t>
+          <t>2396330.56</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>417484.52</t>
+          <t>1117766.79</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>130383.20</t>
+          <t>417484.52</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>130383.20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>55500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,32 +3907,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>208800.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1064760.67</t>
+          <t>208800.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>610292.91</t>
+          <t>1064760.67</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>195209.01</t>
+          <t>610292.91</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>195209.01</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>27500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>616045.27</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3005806.10</t>
+          <t>616045.27</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1409131.02</t>
+          <t>3005806.10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>426000.00</t>
+          <t>1409131.02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>115157.00</t>
+          <t>426000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,30 +4369,72 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>115157.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>107000.00</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>113250.00</t>
+          <t>117250.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>938531.74</t>
+          <t>980466.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>500391.77</t>
+          <t>522391.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>146500.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>210152.38</t>
+          <t>212152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1145323.65</t>
+          <t>1173294.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>527370.00</t>
+          <t>585458.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>176045.00</t>
+          <t>186045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>79716.00</t>
+          <t>89716.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>26621.00</t>
+          <t>30621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>190320.00</t>
+          <t>194640.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1242244.87</t>
+          <t>1310793.53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>766840.11</t>
+          <t>816840.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>298974.00</t>
+          <t>318974.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>231937.17</t>
+          <t>235937.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1575250.52</t>
+          <t>1598750.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>853660.65</t>
+          <t>873868.65</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>121521.00</t>
+          <t>125213.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1297941.26</t>
+          <t>1461621.26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7191899.28</t>
+          <t>8337567.73</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4498315.29</t>
+          <t>5299887.99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1892067.00</t>
+          <t>2207307.25</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>359511.00</t>
+          <t>551041.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>463423.00</t>
+          <t>540773.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>208542.41</t>
+          <t>218542.41</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1006792.54</t>
+          <t>1067946.54</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>482662.18</t>
+          <t>544092.18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>160849.00</t>
+          <t>167497.67</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>41000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>518326.09</t>
+          <t>540326.09</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>820</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2396330.56</t>
+          <t>2434044.56</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1117766.79</t>
+          <t>1121266.79</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>55500.00</t>
+          <t>57500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>208800.00</t>
+          <t>215878.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1064760.67</t>
+          <t>1078760.67</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>610292.91</t>
+          <t>620292.91</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>27500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>616045.27</t>
+          <t>618045.27</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>341600.00</t>
+          <t>343600.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>854</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2266838.45</t>
+          <t>2327070.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1199844.92</t>
+          <t>1236968.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>357982.09</t>
+          <t>367982.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>212152.38</t>
+          <t>224152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1173294.19</t>
+          <t>1185147.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>186045.00</t>
+          <t>196045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>468</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1310793.53</t>
+          <t>1325978.53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>816840.11</t>
+          <t>820539.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>72330.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>306500.00</t>
+          <t>363579.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>200200.00</t>
+          <t>250900.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>55995.14</t>
+          <t>65995.14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>34500.00</t>
+          <t>44500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>58500.00</t>
+          <t>68905.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>66621.84</t>
+          <t>88621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>151348.00</t>
+          <t>173937.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>140197.00</t>
+          <t>143697.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>194640.00</t>
+          <t>223156.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1325978.53</t>
+          <t>1430983.41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>820539.11</t>
+          <t>887647.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>318974.00</t>
+          <t>363474.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>40200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>235937.17</t>
+          <t>237937.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1598750.52</t>
+          <t>1646527.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>873868.65</t>
+          <t>942188.88</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>380878.23</t>
+          <t>422878.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1461621.26</t>
+          <t>1534670.41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8337567.73</t>
+          <t>8610406.65</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5299887.99</t>
+          <t>5600505.99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2207307.25</t>
+          <t>2322807.25</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>551041.00</t>
+          <t>571041.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>540773.00</t>
+          <t>553253.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>61984.00</t>
+          <t>18861.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>473300.00</t>
+          <t>86981.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3067,22 +3067,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>280000.00</t>
+          <t>63535.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>28527.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>61984.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>218542.41</t>
+          <t>473300.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1067946.54</t>
+          <t>280000.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>544092.18</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>167497.67</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>218542.41</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>540326.09</t>
+          <t>1067946.54</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2434044.56</t>
+          <t>544092.18</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3529,32 +3529,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1121266.79</t>
+          <t>167497.67</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>417484.52</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>130383.20</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>57500.00</t>
+          <t>545826.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>828</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>2490044.56</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,32 +3739,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>1164766.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>437484.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>134080.04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,32 +3865,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>57500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>215878.00</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1078760.67</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>620292.91</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>195209.01</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>215878.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4201,32 +4201,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>618045.27</t>
+          <t>1094260.67</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,32 +4243,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3005806.10</t>
+          <t>630292.91</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,32 +4285,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1409131.02</t>
+          <t>205209.01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,32 +4327,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>426000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>115157.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4411,30 +4411,240 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>618045.27</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0 salarié</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3005806.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1 ou 2 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1409131.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>3 à 5 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>426000.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>6 à 9 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>115157.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>107000.00</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>880773.99</t>
+          <t>923503.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>403337.00</t>
+          <t>423337.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>160233.00</t>
+          <t>170233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>223156.00</t>
+          <t>225156.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1430983.41</t>
+          <t>1432983.41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>887647.11</t>
+          <t>907647.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>130500.00</t>
+          <t>140500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>237937.17</t>
+          <t>242933.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1646527.52</t>
+          <t>1660527.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>422878.23</t>
+          <t>432878.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>830</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2490044.56</t>
+          <t>2502044.56</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1164766.79</t>
+          <t>1166766.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>134080.04</t>
+          <t>149080.04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>215878.00</t>
+          <t>219878.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1094260.67</t>
+          <t>1108260.67</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>630292.91</t>
+          <t>640292.91</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>205209.01</t>
+          <t>211347.01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>225156.00</t>
+          <t>235826.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1432983.41</t>
+          <t>1459400.41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>907647.11</t>
+          <t>937647.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>363474.00</t>
+          <t>383474.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>72330.00</t>
+          <t>74330.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>88621.84</t>
+          <t>92621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>227122.07</t>
+          <t>263191.74</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>173937.00</t>
+          <t>204937.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>143697.00</t>
+          <t>153697.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>545826.09</t>
+          <t>551826.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>838</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2502044.56</t>
+          <t>2555291.11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1166766.79</t>
+          <t>1198440.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>437484.52</t>
+          <t>462484.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1108260.67</t>
+          <t>1110260.67</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>211347.01</t>
+          <t>221347.01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>224152.38</t>
+          <t>230152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1185147.19</t>
+          <t>1229526.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>585458.00</t>
+          <t>621119.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>196045.00</t>
+          <t>206045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89716.00</t>
+          <t>99716.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30621.00</t>
+          <t>32621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>423337.00</t>
+          <t>425337.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>235826.00</t>
+          <t>239826.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1459400.41</t>
+          <t>1499825.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>937647.11</t>
+          <t>944847.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>74330.00</t>
+          <t>78330.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>363579.00</t>
+          <t>384328.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>250900.00</t>
+          <t>262900.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>65995.14</t>
+          <t>75995.14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>68905.00</t>
+          <t>94683.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>242933.17</t>
+          <t>249228.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1660527.52</t>
+          <t>1672527.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>942188.88</t>
+          <t>979735.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>432878.23</t>
+          <t>452878.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1534670.41</t>
+          <t>1668796.41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8610406.65</t>
+          <t>9822525.10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5600505.99</t>
+          <t>6733611.92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2322807.25</t>
+          <t>2712640.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>571041.00</t>
+          <t>804041.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>553253.00</t>
+          <t>638263.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>551826.09</t>
+          <t>555826.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>843</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2555291.11</t>
+          <t>2576291.11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1198440.79</t>
+          <t>1220440.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>462484.52</t>
+          <t>492484.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>219878.00</t>
+          <t>221878.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1110260.67</t>
+          <t>1112260.67</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>923503.99</t>
+          <t>935504.07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>425337.00</t>
+          <t>458348.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>239826.00</t>
+          <t>243826.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1499825.82</t>
+          <t>1563122.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>944847.11</t>
+          <t>990347.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>40200.00</t>
+          <t>42200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92621.84</t>
+          <t>98621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>263191.74</t>
+          <t>287139.82</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>204937.00</t>
+          <t>231937.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13850.00</t>
+          <t>15850.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>249228.17</t>
+          <t>257768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1672527.52</t>
+          <t>1774758.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>979735.76</t>
+          <t>1045235.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>452878.23</t>
+          <t>466378.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>42720.65</t>
+          <t>44720.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>668</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1668796.41</t>
+          <t>1670796.41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9822525.10</t>
+          <t>9856825.10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6733611.92</t>
+          <t>6745611.92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2712640.96</t>
+          <t>2717640.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>555826.09</t>
+          <t>557826.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>849</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2576291.11</t>
+          <t>2613791.11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>57500.00</t>
+          <t>61500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>618045.27</t>
+          <t>695896.75</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3005806.10</t>
+          <t>3478927.44</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1409131.02</t>
+          <t>1712594.02</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>426000.00</t>
+          <t>517000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>115157.00</t>
+          <t>179157.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>107000.00</t>
+          <t>137000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>343600.00</t>
+          <t>349600.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>869</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2327070.65</t>
+          <t>2411251.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1236968.92</t>
+          <t>1286368.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>367982.09</t>
+          <t>387982.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>243826.00</t>
+          <t>260748.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1563122.82</t>
+          <t>1613326.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>990347.11</t>
+          <t>1027347.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>140500.00</t>
+          <t>150500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>42200.00</t>
+          <t>46200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>257768.17</t>
+          <t>267768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1774758.52</t>
+          <t>1830509.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>676</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1670796.41</t>
+          <t>1690796.41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9856825.10</t>
+          <t>10010898.69</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6745611.92</t>
+          <t>6796111.92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2717640.96</t>
+          <t>2737640.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>638263.00</t>
+          <t>640263.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>218542.41</t>
+          <t>242519.87</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1067946.54</t>
+          <t>1154173.74</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>544092.18</t>
+          <t>579358.18</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>167497.67</t>
+          <t>177497.67</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>61000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>851</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2613791.11</t>
+          <t>2620997.11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1220440.79</t>
+          <t>1227440.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>492484.52</t>
+          <t>502484.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1286368.92</t>
+          <t>1296368.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>117250.00</t>
+          <t>129428.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>980466.74</t>
+          <t>1069996.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>522391.77</t>
+          <t>557891.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>146500.00</t>
+          <t>152120.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>230152.38</t>
+          <t>254152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1229526.14</t>
+          <t>1262472.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>206045.00</t>
+          <t>226045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>260748.00</t>
+          <t>268748.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1613326.26</t>
+          <t>1633546.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>150500.00</t>
+          <t>170500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>267768.17</t>
+          <t>269768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1830509.52</t>
+          <t>1869799.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1045235.76</t>
+          <t>1086446.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>466378.23</t>
+          <t>489878.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>125213.00</t>
+          <t>133213.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>44720.65</t>
+          <t>54720.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>695896.75</t>
+          <t>714279.43</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3478927.44</t>
+          <t>3534360.70</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1712594.02</t>
+          <t>1742594.02</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>517000.00</t>
+          <t>527000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>137000.00</t>
+          <t>141000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>349600.00</t>
+          <t>358316.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>890</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2411251.17</t>
+          <t>2559892.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1296368.92</t>
+          <t>1399326.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>387982.09</t>
+          <t>431482.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>124500.00</t>
+          <t>144500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>254152.38</t>
+          <t>264152.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1262472.14</t>
+          <t>1272472.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>226045.00</t>
+          <t>231045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>458348.00</t>
+          <t>468348.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>170233.00</t>
+          <t>190233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>45500.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>268748.00</t>
+          <t>270748.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1633546.26</t>
+          <t>1639546.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>287139.82</t>
+          <t>322164.35</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>231937.00</t>
+          <t>241937.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>153697.00</t>
+          <t>173697.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15850.00</t>
+          <t>23850.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>679</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1690796.41</t>
+          <t>1701943.84</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3309</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10010898.69</t>
+          <t>10062234.69</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6796111.92</t>
+          <t>6894260.28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>582</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2737640.96</t>
+          <t>2757640.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>804041.00</t>
+          <t>811623.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>640263.00</t>
+          <t>658802.79</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>557826.09</t>
+          <t>565326.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>856</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2620997.11</t>
+          <t>2654635.61</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1227440.79</t>
+          <t>1242468.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>502484.52</t>
+          <t>515984.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>358316.00</t>
+          <t>364316.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>904</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2559892.01</t>
+          <t>2668497.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1399326.69</t>
+          <t>1485271.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>431482.09</t>
+          <t>446482.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>144500.00</t>
+          <t>154500.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1272472.14</t>
+          <t>1290526.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>621119.72</t>
+          <t>624519.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>117500.00</t>
+          <t>124800.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>935504.07</t>
+          <t>945504.07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>468348.00</t>
+          <t>483160.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>190233.00</t>
+          <t>195233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>270748.00</t>
+          <t>278290.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>530</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1639546.26</t>
+          <t>1645546.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1027347.11</t>
+          <t>1030847.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>322164.35</t>
+          <t>357475.35</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>241937.00</t>
+          <t>248437.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>173697.00</t>
+          <t>200197.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1869799.52</t>
+          <t>1887376.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>686</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1701943.84</t>
+          <t>1719359.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3361</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10062234.69</t>
+          <t>10211642.72</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6894260.28</t>
+          <t>6970240.28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2757640.96</t>
+          <t>2767640.96</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>811623.00</t>
+          <t>821623.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>658802.79</t>
+          <t>661342.79</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>565326.09</t>
+          <t>579326.09</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>868</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2654635.61</t>
+          <t>2732447.61</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1242468.79</t>
+          <t>1271403.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>515984.52</t>
+          <t>551984.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>149080.04</t>
+          <t>154080.04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>364316.00</t>
+          <t>408816.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>954</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2668497.68</t>
+          <t>2949159.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1485271.56</t>
+          <t>1611011.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>446482.09</t>
+          <t>476466.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25500.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>66000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>129428.41</t>
+          <t>135928.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1069996.74</t>
+          <t>1143495.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>557891.77</t>
+          <t>576601.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>152120.00</t>
+          <t>165120.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>37000.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>264152.38</t>
+          <t>271752.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1290526.14</t>
+          <t>1329636.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>624519.72</t>
+          <t>635869.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99716.00</t>
+          <t>111216.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>278290.00</t>
+          <t>283673.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1645546.26</t>
+          <t>1760650.66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1030847.11</t>
+          <t>1088288.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>383474.00</t>
+          <t>387894.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>78330.00</t>
+          <t>83830.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>384328.00</t>
+          <t>391828.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>262900.00</t>
+          <t>276298.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>75995.14</t>
+          <t>77995.14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>94683.00</t>
+          <t>110683.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>269768.17</t>
+          <t>273768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1887376.52</t>
+          <t>1904876.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1086446.76</t>
+          <t>1096446.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>54720.65</t>
+          <t>56720.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1719359.65</t>
+          <t>1807318.62</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10211642.72</t>
+          <t>10921054.21</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6970240.28</t>
+          <t>7529834.94</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>627</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2767640.96</t>
+          <t>3066791.45</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>821623.00</t>
+          <t>875123.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>661342.79</t>
+          <t>674120.58</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>875</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2732447.61</t>
+          <t>2767444.67</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1271403.79</t>
+          <t>1321403.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>551984.52</t>
+          <t>561984.52</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>714279.43</t>
+          <t>725779.43</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3534360.70</t>
+          <t>3561000.70</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1742594.02</t>
+          <t>1762594.02</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>179157.00</t>
+          <t>189157.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>408816.00</t>
+          <t>422816.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2949159.33</t>
+          <t>3084177.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1611011.12</t>
+          <t>1639698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>476466.09</t>
+          <t>527128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>154500.00</t>
+          <t>183143.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>40500.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>66000.00</t>
+          <t>70000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>635869.10</t>
+          <t>642202.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>283673.00</t>
+          <t>285673.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1760650.66</t>
+          <t>1791904.47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1088288.11</t>
+          <t>1108288.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>248437.00</t>
+          <t>256060.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>273768.17</t>
+          <t>275768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1904876.52</t>
+          <t>1929686.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1096446.76</t>
+          <t>1116446.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>489878.23</t>
+          <t>509378.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>877</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2767444.67</t>
+          <t>2787444.67</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1321403.79</t>
+          <t>1341403.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>154080.04</t>
+          <t>164080.04</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>725779.43</t>
+          <t>769279.43</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3561000.70</t>
+          <t>3655891.37</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1762594.02</t>
+          <t>1816594.02</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>527000.00</t>
+          <t>544000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>189157.00</t>
+          <t>199157.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>422816.00</t>
+          <t>426816.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3084177.33</t>
+          <t>3151764.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1639698.25</t>
+          <t>1661698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>527128.09</t>
+          <t>540628.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>183143.82</t>
+          <t>186643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70000.00</t>
+          <t>80000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>271752.38</t>
+          <t>281752.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1329636.54</t>
+          <t>1338179.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>642202.10</t>
+          <t>652202.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>231045.00</t>
+          <t>241045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32621.00</t>
+          <t>38621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1791904.47</t>
+          <t>1804484.47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>83830.00</t>
+          <t>94105.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>391828.00</t>
+          <t>423905.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>276298.00</t>
+          <t>284298.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>77995.14</t>
+          <t>91595.14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>44500.00</t>
+          <t>55500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>110683.00</t>
+          <t>135183.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>275768.17</t>
+          <t>281768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1929686.52</t>
+          <t>1988705.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1116446.76</t>
+          <t>1134878.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>133213.00</t>
+          <t>138213.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>56720.65</t>
+          <t>62220.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2787444.67</t>
+          <t>2810944.67</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1341403.79</t>
+          <t>1351403.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>61500.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>426816.00</t>
+          <t>442016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3151764.33</t>
+          <t>3179764.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1661698.25</t>
+          <t>1675698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>540628.09</t>
+          <t>547128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>124800.00</t>
+          <t>126800.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>945504.07</t>
+          <t>953679.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>195233.00</t>
+          <t>207233.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>57000.00</t>
+          <t>67000.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>285673.00</t>
+          <t>295673.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1804484.47</t>
+          <t>1823794.47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1108288.11</t>
+          <t>1118288.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1988705.52</t>
+          <t>2008915.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>62220.65</t>
+          <t>66220.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>18861.00</t>
+          <t>34861.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>86981.00</t>
+          <t>179849.69</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>63535.00</t>
+          <t>110535.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>28527.00</t>
+          <t>54027.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>61984.00</t>
+          <t>10500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>473300.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>280000.00</t>
+          <t>61984.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>473300.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>280000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,32 +3403,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>242519.87</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1154173.74</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>579358.18</t>
+          <t>242519.87</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>177497.67</t>
+          <t>1154173.74</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>61000.00</t>
+          <t>579358.18</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>177497.67</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>579326.09</t>
+          <t>61000.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2810944.67</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1351403.79</t>
+          <t>581326.09</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>561984.52</t>
+          <t>2826547.26</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>164080.04</t>
+          <t>1357303.79</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>571984.52</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,32 +3907,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>174080.04</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>74500.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>221878.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,32 +4201,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1112260.67</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>640292.91</t>
+          <t>221878.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>221347.01</t>
+          <t>1112260.67</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>640292.91</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>221347.01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4411,32 +4411,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>769279.43</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,32 +4453,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3655891.37</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1816594.02</t>
+          <t>774979.43</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>544000.00</t>
+          <t>3691343.89</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>199157.00</t>
+          <t>1846594.02</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,114 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>563996.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>6 à 9 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>219157.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>141000.00</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>442016.00</t>
+          <t>446016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3179764.33</t>
+          <t>3183764.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1675698.25</t>
+          <t>1683698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>547128.09</t>
+          <t>562128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>135928.41</t>
+          <t>147928.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1143495.69</t>
+          <t>1267688.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>576601.77</t>
+          <t>618601.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>165120.00</t>
+          <t>175120.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>41500.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1338179.15</t>
+          <t>1343086.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>652202.10</t>
+          <t>655702.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>295673.00</t>
+          <t>307173.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>566</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1823794.47</t>
+          <t>1861379.47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1118288.11</t>
+          <t>1134788.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>387894.00</t>
+          <t>397894.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>281768.17</t>
+          <t>283768.17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>587</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2008915.52</t>
+          <t>2031583.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1134878.76</t>
+          <t>1142878.76</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>66220.65</t>
+          <t>68220.65</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>887</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2826547.26</t>
+          <t>2841512.26</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3183764.33</t>
+          <t>3193764.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1683698.25</t>
+          <t>1715698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1343086.23</t>
+          <t>1353086.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>655702.10</t>
+          <t>665702.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>483160.00</t>
+          <t>493160.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>207233.00</t>
+          <t>213733.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>357475.35</t>
+          <t>361475.35</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>256060.00</t>
+          <t>264913.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>200197.00</t>
+          <t>203697.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>23850.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>283768.17</t>
+          <t>29850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2031583.52</t>
+          <t>283768.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>588</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1142878.76</t>
+          <t>2039583.52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>509378.23</t>
+          <t>1142878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>138213.00</t>
+          <t>509378.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>68220.65</t>
+          <t>138213.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2689,32 +2689,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1807318.62</t>
+          <t>68220.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10921054.21</t>
+          <t>1807318.62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7529834.94</t>
+          <t>10921054.21</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3066791.45</t>
+          <t>7529834.94</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>627</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>875123.00</t>
+          <t>3066791.45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>875123.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>674120.58</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2983,32 +2983,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>34861.00</t>
+          <t>674120.58</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>179849.69</t>
+          <t>34861.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>110535.00</t>
+          <t>179849.69</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>54027.00</t>
+          <t>110535.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10500.00</t>
+          <t>54027.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>10500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>61984.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>473300.00</t>
+          <t>61984.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>280000.00</t>
+          <t>473300.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>280000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3487,22 +3487,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>242519.87</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1154173.74</t>
+          <t>242519.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>579358.18</t>
+          <t>1154173.74</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>177497.67</t>
+          <t>579358.18</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>61000.00</t>
+          <t>177497.67</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>61000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,32 +3739,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>581326.09</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2841512.26</t>
+          <t>581326.09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>888</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1357303.79</t>
+          <t>2848012.26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>571984.52</t>
+          <t>1367303.79</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>174080.04</t>
+          <t>571984.52</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>74500.00</t>
+          <t>174080.04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>74500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,32 +4243,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>221878.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1112260.67</t>
+          <t>221878.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>640292.91</t>
+          <t>1112260.67</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>221347.01</t>
+          <t>640292.91</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>221347.01</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,32 +4495,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>774979.43</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3691343.89</t>
+          <t>774979.43</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1846594.02</t>
+          <t>3691343.89</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>563996.00</t>
+          <t>1846594.02</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>219157.00</t>
+          <t>563996.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4705,30 +4705,72 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>219157.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>141000.00</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>446016.00</t>
+          <t>448016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3193764.33</t>
+          <t>3223895.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1715698.25</t>
+          <t>1735698.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80000.00</t>
+          <t>84000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>147928.41</t>
+          <t>149597.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1267688.71</t>
+          <t>1274188.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>307173.00</t>
+          <t>317173.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1861379.47</t>
+          <t>1877479.47</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1134788.11</t>
+          <t>1144788.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46200.00</t>
+          <t>48200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>361475.35</t>
+          <t>374474.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29850.00</t>
+          <t>31850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>283768.17</t>
+          <t>295768.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2039583.52</t>
+          <t>2098936.52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1142878.76</t>
+          <t>1152878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1807318.62</t>
+          <t>1821318.62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10921054.21</t>
+          <t>11041660.38</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7529834.94</t>
+          <t>7601634.94</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3066791.45</t>
+          <t>3120291.45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>875123.00</t>
+          <t>885123.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>674120.58</t>
+          <t>676120.58</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>581326.09</t>
+          <t>583326.09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>889</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2848012.26</t>
+          <t>2850012.26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3223895.33</t>
+          <t>3237394.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>149597.64</t>
+          <t>155597.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1274188.71</t>
+          <t>1303761.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>618601.77</t>
+          <t>647101.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>175120.00</t>
+          <t>183783.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1353086.23</t>
+          <t>1357961.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>665702.10</t>
+          <t>671702.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>241045.00</t>
+          <t>251045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>953679.20</t>
+          <t>963679.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1877479.47</t>
+          <t>1891313.66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1144788.11</t>
+          <t>1157788.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>295768.17</t>
+          <t>297768.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2098936.52</t>
+          <t>2107095.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1152878.76</t>
+          <t>1172878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>509378.23</t>
+          <t>511378.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>68220.65</t>
+          <t>78220.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>54027.00</t>
+          <t>64027.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3237394.33</t>
+          <t>3260894.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1735698.25</t>
+          <t>1744198.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>562128.09</t>
+          <t>574128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1891313.66</t>
+          <t>1894813.66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1157788.11</t>
+          <t>1159788.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>397894.00</t>
+          <t>407894.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2107095.21</t>
+          <t>2117095.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>511378.23</t>
+          <t>520878.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>715</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1821318.62</t>
+          <t>1837318.62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>885123.00</t>
+          <t>888623.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>34861.00</t>
+          <t>41261.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>583326.09</t>
+          <t>593326.09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>894</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2850012.26</t>
+          <t>2868012.26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>571984.52</t>
+          <t>581984.52</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>221878.00</t>
+          <t>254578.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1112260.67</t>
+          <t>1250108.52</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>640292.91</t>
+          <t>707710.27</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>221347.01</t>
+          <t>296911.73</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>774979.43</t>
+          <t>793054.43</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3691343.89</t>
+          <t>3782146.74</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1846594.02</t>
+          <t>1883812.62</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>563996.00</t>
+          <t>593996.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>219157.00</t>
+          <t>229157.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>141000.00</t>
+          <t>146571.16</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3260894.33</t>
+          <t>3286820.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1744198.25</t>
+          <t>1754198.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>186643.82</t>
+          <t>196643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1303761.71</t>
+          <t>1311761.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1894813.66</t>
+          <t>1903771.66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1159788.11</t>
+          <t>1192368.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>407894.00</t>
+          <t>427894.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>48200.00</t>
+          <t>50200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2117095.21</t>
+          <t>2135615.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1172878.76</t>
+          <t>1182878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>138213.00</t>
+          <t>143213.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>78220.65</t>
+          <t>80220.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>897</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2868012.26</t>
+          <t>2880909.26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79000.00</t>
+          <t>123419.13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>303336.66</t>
+          <t>426965.56</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>152500.00</t>
+          <t>230297.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>317173.00</t>
+          <t>319173.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1903771.66</t>
+          <t>1907271.66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1192368.11</t>
+          <t>1225868.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>98621.84</t>
+          <t>102621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>374474.61</t>
+          <t>409774.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>264913.00</t>
+          <t>299203.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>297768.17</t>
+          <t>317768.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>609</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2135615.21</t>
+          <t>2207241.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1182878.76</t>
+          <t>1192878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>520878.23</t>
+          <t>548274.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>143213.00</t>
+          <t>153213.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>242519.87</t>
+          <t>266139.87</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1154173.74</t>
+          <t>1338019.84</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>579358.18</t>
+          <t>672987.18</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>177497.67</t>
+          <t>222621.67</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>61000.00</t>
+          <t>81000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>448016.00</t>
+          <t>452016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3286820.33</t>
+          <t>3295120.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84000.00</t>
+          <t>86000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1357961.23</t>
+          <t>1366161.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>963679.20</t>
+          <t>971679.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>319173.00</t>
+          <t>321173.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>587</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1907271.66</t>
+          <t>1936276.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1225868.11</t>
+          <t>1293520.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>50200.00</t>
+          <t>52200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94105.00</t>
+          <t>105536.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>423905.00</t>
+          <t>470779.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>284298.00</t>
+          <t>294298.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>135183.00</t>
+          <t>167183.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>102621.84</t>
+          <t>106621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>409774.61</t>
+          <t>413774.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>299203.00</t>
+          <t>303203.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>31850.00</t>
+          <t>35850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>68000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>266139.87</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1338019.84</t>
+          <t>266139.87</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>672987.18</t>
+          <t>1338019.84</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>222621.67</t>
+          <t>672987.18</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>81000.00</t>
+          <t>222621.67</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>81000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>593326.09</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2880909.26</t>
+          <t>597326.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>903</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1367303.79</t>
+          <t>2909509.26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>581984.52</t>
+          <t>1367303.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>174080.04</t>
+          <t>591984.52</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>74500.00</t>
+          <t>184080.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>74500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>473026.72</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>2186340.06</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>998675.97</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>384626.30</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,32 +4285,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>254578.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1250108.52</t>
+          <t>254578.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>707710.27</t>
+          <t>1250108.52</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>296911.73</t>
+          <t>707710.27</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>296911.73</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,32 +4537,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>793054.43</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3782146.74</t>
+          <t>793054.43</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1883812.62</t>
+          <t>3782146.74</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>593996.00</t>
+          <t>1883812.62</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>229157.00</t>
+          <t>593996.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4747,30 +4747,72 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>229157.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>146571.16</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>452016.00</t>
+          <t>454016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>281752.38</t>
+          <t>283752.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1366161.23</t>
+          <t>1376161.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>671702.10</t>
+          <t>675202.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>126800.00</t>
+          <t>128800.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>123419.13</t>
+          <t>131669.13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>426965.56</t>
+          <t>444965.56</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>230297.00</t>
+          <t>242297.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1936276.10</t>
+          <t>1941776.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1293520.11</t>
+          <t>1303520.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>470779.00</t>
+          <t>480779.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>317768.17</t>
+          <t>321135.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2207241.21</t>
+          <t>2226761.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1192878.76</t>
+          <t>1222878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>548274.23</t>
+          <t>558274.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>717</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1837318.62</t>
+          <t>1850818.62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>41261.00</t>
+          <t>60261.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>179849.69</t>
+          <t>281349.69</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>110535.00</t>
+          <t>203035.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>64027.00</t>
+          <t>88876.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10500.00</t>
+          <t>12500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>908</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2909509.26</t>
+          <t>2933833.26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1367303.79</t>
+          <t>1373803.79</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>591984.52</t>
+          <t>598484.52</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>454016.00</t>
+          <t>458016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3295120.33</t>
+          <t>3407744.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1754198.25</t>
+          <t>1776198.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>196643.82</t>
+          <t>206643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40500.00</t>
+          <t>50500.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>90000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>155597.64</t>
+          <t>159597.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1311761.71</t>
+          <t>1349761.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>183783.00</t>
+          <t>190283.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37000.00</t>
+          <t>42000.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>427894.00</t>
+          <t>447894.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106621.84</t>
+          <t>108621.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>303203.00</t>
+          <t>306703.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>321135.17</t>
+          <t>325135.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>619</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2226761.21</t>
+          <t>2267961.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1222878.76</t>
+          <t>1242878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>558274.23</t>
+          <t>568274.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>80220.65</t>
+          <t>82220.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>888623.00</t>
+          <t>898623.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>61984.00</t>
+          <t>64214.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>473300.00</t>
+          <t>477149.88</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>280000.00</t>
+          <t>283926.60</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>30150.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>597326.09</t>
+          <t>603326.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>909</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2933833.26</t>
+          <t>2935833.26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1373803.79</t>
+          <t>1387985.70</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>598484.52</t>
+          <t>613484.52</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>74500.00</t>
+          <t>76500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>254578.00</t>
+          <t>262578.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1250108.52</t>
+          <t>1294526.53</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>707710.27</t>
+          <t>734027.27</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>296911.73</t>
+          <t>301911.73</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3407744.33</t>
+          <t>3439244.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1776198.25</t>
+          <t>1815645.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>574128.09</t>
+          <t>576128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>206643.82</t>
+          <t>208643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>971679.20</t>
+          <t>1019762.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>493160.00</t>
+          <t>513160.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>413774.61</t>
+          <t>441274.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>306703.00</t>
+          <t>311703.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>203697.00</t>
+          <t>213697.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>35850.00</t>
+          <t>37850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>622</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2267961.21</t>
+          <t>2282958.21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1242878.76</t>
+          <t>1252878.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>153213.00</t>
+          <t>163213.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>82220.65</t>
+          <t>84220.65</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3120291.45</t>
+          <t>3125291.45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>911</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2935833.26</t>
+          <t>2945833.26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>793054.43</t>
+          <t>821687.37</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3782146.74</t>
+          <t>4045488.43</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1883812.62</t>
+          <t>2018990.62</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>593996.00</t>
+          <t>611996.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>229157.00</t>
+          <t>248657.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>146571.16</t>
+          <t>159956.16</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>458016.00</t>
+          <t>474016.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3439244.33</t>
+          <t>3500837.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1815645.25</t>
+          <t>1827442.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>576128.09</t>
+          <t>580128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90000.00</t>
+          <t>95000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>159597.64</t>
+          <t>164607.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1349761.71</t>
+          <t>1377261.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>647101.77</t>
+          <t>653601.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>283752.38</t>
+          <t>300126.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1376161.23</t>
+          <t>1409153.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>675202.10</t>
+          <t>701553.96</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>111216.00</t>
+          <t>121216.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>38621.00</t>
+          <t>40621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>128800.00</t>
+          <t>130800.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>321173.00</t>
+          <t>339173.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1941776.10</t>
+          <t>2048578.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1303520.11</t>
+          <t>1369531.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>447894.00</t>
+          <t>476394.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>170500.00</t>
+          <t>180500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>52200.00</t>
+          <t>56200.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>105536.00</t>
+          <t>133886.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>480779.00</t>
+          <t>521991.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>294298.00</t>
+          <t>320429.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>55500.00</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>167183.00</t>
+          <t>185183.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>108621.84</t>
+          <t>114357.84</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>441274.61</t>
+          <t>459974.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>37850.00</t>
+          <t>39850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>325135.17</t>
+          <t>335698.17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2282958.21</t>
+          <t>2485548.42</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1252878.76</t>
+          <t>1330578.76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>568274.23</t>
+          <t>653274.23</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>163213.00</t>
+          <t>173213.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1850818.62</t>
+          <t>2127800.24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11041660.38</t>
+          <t>12997226.28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>2033</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7601634.94</t>
+          <t>9190618.89</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>705</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3125291.45</t>
+          <t>3707842.28</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>898623.00</t>
+          <t>1124223.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>676120.58</t>
+          <t>973422.27</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>60261.00</t>
+          <t>97961.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>281349.69</t>
+          <t>360837.69</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>203035.00</t>
+          <t>229421.21</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>88876.00</t>
+          <t>102876.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9500.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>603326.09</t>
+          <t>605326.09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>924</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2945833.26</t>
+          <t>3012146.26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1387985.70</t>
+          <t>1410985.70</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>613484.52</t>
+          <t>628484.52</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1294526.53</t>
+          <t>1343302.36</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>734027.27</t>
+          <t>740304.72</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>301911.73</t>
+          <t>331911.73</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>474016.00</t>
+          <t>564228.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3500837.33</t>
+          <t>3688282.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1827442.36</t>
+          <t>2021730.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>580128.09</t>
+          <t>658628.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>208643.82</t>
+          <t>298643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50500.00</t>
+          <t>60500.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95000.00</t>
+          <t>104000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1377261.71</t>
+          <t>1386261.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>653601.77</t>
+          <t>708601.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>190283.00</t>
+          <t>240852.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42000.00</t>
+          <t>63391.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1019762.20</t>
+          <t>1104101.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>513160.00</t>
+          <t>551660.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>213733.00</t>
+          <t>271000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>67000.00</t>
+          <t>155640.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>42392.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1471,32 +1471,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>131669.13</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>444965.56</t>
+          <t>133669.13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>242297.00</t>
+          <t>464965.56</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46500.00</t>
+          <t>242297.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1723,32 +1723,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>339173.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2048578.10</t>
+          <t>345173.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1369531.11</t>
+          <t>2086078.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>476394.00</t>
+          <t>1414463.11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>180500.00</t>
+          <t>550725.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>56200.00</t>
+          <t>200500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1975,32 +1975,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>133886.00</t>
+          <t>62200.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>521991.00</t>
+          <t>133886.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>320429.00</t>
+          <t>521991.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91595.14</t>
+          <t>320429.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>91595.14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>185183.00</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2227,32 +2227,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>114357.84</t>
+          <t>185183.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>459974.61</t>
+          <t>138357.84</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>311703.00</t>
+          <t>511974.61</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>213697.00</t>
+          <t>352203.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>258697.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>39850.00</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2479,32 +2479,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>335698.17</t>
+          <t>52250.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2485548.42</t>
+          <t>351786.05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>694</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1330578.76</t>
+          <t>2898400.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>653274.23</t>
+          <t>1468117.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>173213.00</t>
+          <t>757097.18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>84220.65</t>
+          <t>208013.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2731,32 +2731,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2127800.24</t>
+          <t>94220.65</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12997226.28</t>
+          <t>2293465.24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9190618.89</t>
+          <t>13838999.45</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3707842.28</t>
+          <t>9961825.78</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>738</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1124223.00</t>
+          <t>4015351.28</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>1154223.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>973422.27</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,32 +3025,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>97961.00</t>
+          <t>1069849.34</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>360837.69</t>
+          <t>101961.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>229421.21</t>
+          <t>366976.16</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>102876.00</t>
+          <t>235886.21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>104876.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>64214.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>477149.88</t>
+          <t>64214.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>283926.60</t>
+          <t>477149.88</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>283926.60</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>30150.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>68000.00</t>
+          <t>30150.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>68000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>266139.87</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1338019.84</t>
+          <t>266139.87</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>672987.18</t>
+          <t>1338019.84</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>222621.67</t>
+          <t>672987.18</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>81000.00</t>
+          <t>222621.67</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>81000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>605326.09</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3012146.26</t>
+          <t>658826.09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>933</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1410985.70</t>
+          <t>3156221.26</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>628484.52</t>
+          <t>1600952.02</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>184080.04</t>
+          <t>644984.52</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>76500.00</t>
+          <t>204554.09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>473026.72</t>
+          <t>78500.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2186340.06</t>
+          <t>805718.85</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>998675.97</t>
+          <t>3423597.19</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>384626.30</t>
+          <t>1557898.46</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>53000.00</t>
+          <t>544952.47</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>60000.00</t>
+          <t>193000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,32 +4327,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>262578.00</t>
+          <t>106000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1343302.36</t>
+          <t>264578.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>740304.72</t>
+          <t>1371350.36</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>331911.73</t>
+          <t>773425.72</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>331911.73</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,32 +4579,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>821687.37</t>
+          <t>31500.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4045488.43</t>
+          <t>892360.30</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2018990.62</t>
+          <t>4272717.13</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>611996.00</t>
+          <t>2123233.62</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>248657.00</t>
+          <t>659996.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>159956.16</t>
+          <t>298657.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,10 +4809,52 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>184956.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3688282.15</t>
+          <t>3781607.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>658628.09</t>
+          <t>672128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>298643.82</t>
+          <t>308643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>300126.38</t>
+          <t>302126.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1409153.23</t>
+          <t>1413153.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>701553.96</t>
+          <t>757437.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40621.00</t>
+          <t>44621.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1104101.51</t>
+          <t>1145468.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>133669.13</t>
+          <t>143669.13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>464965.56</t>
+          <t>472941.56</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>242297.00</t>
+          <t>246248.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>345173.00</t>
+          <t>348673.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>620</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2086078.10</t>
+          <t>2145486.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1414463.11</t>
+          <t>1475306.47</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>550725.00</t>
+          <t>613593.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2898400.28</t>
+          <t>2933539.98</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1468117.74</t>
+          <t>1479617.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>934</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3156221.26</t>
+          <t>3166221.26</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1600952.02</t>
+          <t>1655952.02</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>204554.09</t>
+          <t>214554.09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>805718.85</t>
+          <t>832161.74</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1081</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3423597.19</t>
+          <t>3527930.19</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1557898.46</t>
+          <t>1633898.46</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>544952.47</t>
+          <t>574952.47</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>193000.00</t>
+          <t>213000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>106000.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>892360.30</t>
+          <t>917328.82</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4272717.13</t>
+          <t>4371927.32</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2123233.62</t>
+          <t>2181466.62</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>659996.00</t>
+          <t>679996.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>298657.00</t>
+          <t>308657.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>184956.16</t>
+          <t>186956.16</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>564228.00</t>
+          <t>568228.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3781607.70</t>
+          <t>3849213.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021730.78</t>
+          <t>2079230.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>672128.09</t>
+          <t>682128.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>104000.00</t>
+          <t>106000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>164607.56</t>
+          <t>168607.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1386261.71</t>
+          <t>1408261.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>708601.77</t>
+          <t>752101.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>240852.00</t>
+          <t>260852.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>41500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>302126.38</t>
+          <t>304126.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1413153.23</t>
+          <t>1437153.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>757437.38</t>
+          <t>830937.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>251045.00</t>
+          <t>268045.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>130800.00</t>
+          <t>134800.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1145468.51</t>
+          <t>1154026.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>551660.00</t>
+          <t>601660.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47500.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>348673.00</t>
+          <t>362673.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2145486.10</t>
+          <t>2255462.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1475306.47</t>
+          <t>1600678.11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>613593.00</t>
+          <t>670593.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>200500.00</t>
+          <t>230500.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>62200.00</t>
+          <t>68200.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>133886.00</t>
+          <t>146636.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>521991.00</t>
+          <t>574160.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>320429.00</t>
+          <t>342429.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>185183.00</t>
+          <t>258917.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>138357.84</t>
+          <t>145357.84</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>511974.61</t>
+          <t>538974.61</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>352203.00</t>
+          <t>360703.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>258697.00</t>
+          <t>311681.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>52250.00</t>
+          <t>78900.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>351786.05</t>
+          <t>353786.05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>710</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2933539.98</t>
+          <t>2996539.98</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1479617.74</t>
+          <t>1521617.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>757097.18</t>
+          <t>807097.18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>859</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2293465.24</t>
+          <t>2357840.24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13838999.45</t>
+          <t>14280539.02</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9961825.78</t>
+          <t>10303623.78</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>747</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4015351.28</t>
+          <t>4084097.06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1154223.00</t>
+          <t>1177723.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1069849.34</t>
+          <t>1131579.34</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>101961.00</t>
+          <t>103961.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>658826.09</t>
+          <t>686982.39</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>952</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3166221.26</t>
+          <t>3390636.16</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1655952.02</t>
+          <t>1835669.18</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>644984.52</t>
+          <t>901984.05</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>78500.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,32 +4117,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>832161.74</t>
+          <t>90500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3527930.19</t>
+          <t>832161.74</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1633898.46</t>
+          <t>3540548.59</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>574952.47</t>
+          <t>1633898.46</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>213000.00</t>
+          <t>574952.47</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>213000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>264578.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1371350.36</t>
+          <t>264578.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>773425.72</t>
+          <t>1375350.36</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>331911.73</t>
+          <t>818905.72</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>375384.17</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>31500.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,32 +4621,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>917328.82</t>
+          <t>38260.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4371927.32</t>
+          <t>931328.82</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2181466.62</t>
+          <t>4515948.55</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>679996.00</t>
+          <t>2278695.33</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>308657.00</t>
+          <t>883996.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>186956.16</t>
+          <t>343657.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,10 +4851,52 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>206456.16</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>568228.00</t>
+          <t>576228.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3849213.01</t>
+          <t>3876213.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2079230.78</t>
+          <t>2119230.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>308643.82</t>
+          <t>318643.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106000.00</t>
+          <t>113000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>304126.38</t>
+          <t>306126.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1437153.23</t>
+          <t>1447153.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>134800.00</t>
+          <t>143906.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1154026.51</t>
+          <t>1164026.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>601660.00</t>
+          <t>623660.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>271000.00</t>
+          <t>310949.43</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>638</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2255462.10</t>
+          <t>2279254.64</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1600678.11</t>
+          <t>1625428.97</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>230500.00</t>
+          <t>329055.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>145357.84</t>
+          <t>149357.84</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>538974.61</t>
+          <t>561404.84</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>360703.00</t>
+          <t>442474.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>78900.00</t>
+          <t>84174.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>353786.05</t>
+          <t>385054.84</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>720</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2996539.98</t>
+          <t>3067323.08</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1521617.74</t>
+          <t>1583617.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>807097.18</t>
+          <t>827097.18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>748</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4084097.06</t>
+          <t>4119097.06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>68000.00</t>
+          <t>70000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>266139.87</t>
+          <t>278639.87</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1338019.84</t>
+          <t>1548208.84</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>672987.18</t>
+          <t>826987.18</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>222621.67</t>
+          <t>316844.67</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>81000.00</t>
+          <t>160069.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3390636.16</t>
+          <t>3450600.16</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1835669.18</t>
+          <t>1874553.44</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>832161.74</t>
+          <t>867691.74</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3540548.59</t>
+          <t>3602501.20</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1633898.46</t>
+          <t>1806017.61</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>574952.47</t>
+          <t>608452.47</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>213000.00</t>
+          <t>223000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>122000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2278695.33</t>
+          <t>2285195.33</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>883996.00</t>
+          <t>888996.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>168607.56</t>
+          <t>174468.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1408261.71</t>
+          <t>1451082.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>752101.77</t>
+          <t>823601.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>47500.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1447153.23</t>
+          <t>1496086.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>830937.38</t>
+          <t>904118.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>121216.00</t>
+          <t>131216.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>143906.00</t>
+          <t>153906.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>310949.43</t>
+          <t>343008.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>362673.00</t>
+          <t>366173.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1625428.97</t>
+          <t>1635428.97</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>670593.00</t>
+          <t>731314.71</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>329055.00</t>
+          <t>374055.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>728</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3067323.08</t>
+          <t>3114070.96</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1583617.74</t>
+          <t>1611617.74</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>827097.18</t>
+          <t>839097.18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>883</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2357840.24</t>
+          <t>2431087.24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4298</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14280539.02</t>
+          <t>14829996.17</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10303623.78</t>
+          <t>10851746.96</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4119097.06</t>
+          <t>4332119.06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1177723.00</t>
+          <t>1376147.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1131579.34</t>
+          <t>1171888.34</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>70000.00</t>
+          <t>86000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>278639.87</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1548208.84</t>
+          <t>278639.87</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>826987.18</t>
+          <t>1548208.84</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>316844.67</t>
+          <t>826987.18</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>160069.00</t>
+          <t>316844.67</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>160069.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,32 +3865,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>686982.39</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3450600.16</t>
+          <t>712078.39</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>958</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1874553.44</t>
+          <t>3467500.64</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>901984.05</t>
+          <t>1941144.44</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>214554.09</t>
+          <t>916984.05</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>214554.09</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>90500.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>867691.74</t>
+          <t>104312.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3602501.20</t>
+          <t>867691.74</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1806017.61</t>
+          <t>3602501.20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>608452.47</t>
+          <t>1806017.61</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>223000.00</t>
+          <t>608452.47</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>122000.00</t>
+          <t>223000.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4411,32 +4411,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>264578.00</t>
+          <t>122000.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1375350.36</t>
+          <t>264578.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>818905.72</t>
+          <t>1375350.36</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>375384.17</t>
+          <t>818905.72</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>375384.17</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>38260.00</t>
+          <t>37500.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,32 +4663,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>931328.82</t>
+          <t>38260.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4515948.55</t>
+          <t>931328.82</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2285195.33</t>
+          <t>4515948.55</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>888996.00</t>
+          <t>2285195.33</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>343657.00</t>
+          <t>888996.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4873,30 +4873,72 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>343657.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>206456.16</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>580228.00</t>
+          <t>602728.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3991346.01</t>
+          <t>4116078.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>468</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2208536.78</t>
+          <t>2360036.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>725628.09</t>
+          <t>868628.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>352143.82</t>
+          <t>397143.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>119000.00</t>
+          <t>121000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>193868.56</t>
+          <t>222790.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1473582.71</t>
+          <t>1763782.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>833601.77</t>
+          <t>1070082.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>260852.00</t>
+          <t>464742.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98391.00</t>
+          <t>188391.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>306126.38</t>
+          <t>397906.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1584087.24</t>
+          <t>1845462.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>906118.38</t>
+          <t>1304571.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>281794.00</t>
+          <t>749473.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>131216.00</t>
+          <t>307716.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>155906.00</t>
+          <t>200906.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1219112.90</t>
+          <t>1432912.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>750861.13</t>
+          <t>893776.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>471669.59</t>
+          <t>624653.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>155640.00</t>
+          <t>220640.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>421768.72</t>
+          <t>522412.72</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>693</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2440007.89</t>
+          <t>2801883.70</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1886602.97</t>
+          <t>2273812.04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>871314.71</t>
+          <t>1222970.71</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>374055.00</t>
+          <t>602555.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>41000.00</t>
+          <t>86000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>148636.00</t>
+          <t>150636.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>592024.00</t>
+          <t>636655.81</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>342429.00</t>
+          <t>350429.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>260917.00</t>
+          <t>267908.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>594404.84</t>
+          <t>638104.84</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>503074.00</t>
+          <t>517074.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>335181.00</t>
+          <t>338681.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>39500.00</t>
+          <t>42210.69</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>105674.00</t>
+          <t>117674.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>429054.84</t>
+          <t>466754.84</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>836</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3241300.58</t>
+          <t>4015737.39</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1748617.74</t>
+          <t>2841583.74</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>872419.18</t>
+          <t>1221430.61</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>225245.61</t>
+          <t>598659.61</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,19 +2773,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>28491.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>94220.65</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Hauts-de-France</t>
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,32 +2815,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2431087.24</t>
+          <t>112897.65</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4298</t>
+          <t>972</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14829996.17</t>
+          <t>2804858.57</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10851746.96</t>
+          <t>18043638.52</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4367240.06</t>
+          <t>13449637.37</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>872</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1421147.00</t>
+          <t>5439743.06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>40000.00</t>
+          <t>2110297.29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1171888.34</t>
+          <t>465000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,32 +3109,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>546</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>103961.00</t>
+          <t>1446137.93</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>369476.16</t>
+          <t>103961.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>237886.21</t>
+          <t>369476.16</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>104876.00</t>
+          <t>237886.21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>104876.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,32 +3361,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>64214.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>477149.88</t>
+          <t>64214.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>283926.60</t>
+          <t>477149.88</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>283926.60</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>30150.00</t>
+          <t>123000.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,32 +3571,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>30150.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>278639.87</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1548208.84</t>
+          <t>339139.87</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>826987.18</t>
+          <t>1869168.39</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>316844.67</t>
+          <t>1293257.92</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>160069.00</t>
+          <t>739385.67</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>298168.04</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>751027.17</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3756253.73</t>
+          <t>1082763.19</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2157402.44</t>
+          <t>4371794.66</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>938431.19</t>
+          <t>2830640.28</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>298480.09</t>
+          <t>1527267.74</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>732799.94</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>104312.00</t>
+          <t>200000.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,32 +4243,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>879320.74</t>
+          <t>112212.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3625296.20</t>
+          <t>879320.74</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1806017.61</t>
+          <t>4085238.46</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>608452.47</t>
+          <t>1937800.09</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>223000.00</t>
+          <t>845168.13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>122000.00</t>
+          <t>303000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,32 +4495,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>313578.00</t>
+          <t>87988.86</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,32 +4537,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1565324.36</t>
+          <t>122000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>952009.88</t>
+          <t>340819.57</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>446146.17</t>
+          <t>1667709.17</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>93669.10</t>
+          <t>1188555.88</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>38260.00</t>
+          <t>500416.86</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4747,32 +4747,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>958441.20</t>
+          <t>93669.10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,32 +4789,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4930928.02</t>
+          <t>38260.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2566882.55</t>
+          <t>1149891.68</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>948046.00</t>
+          <t>5647472.45</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>373657.00</t>
+          <t>3336857.40</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>219456.16</t>
+          <t>1632980.73</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,10 +4977,136 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>6 à 9 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>569925.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>145661.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>227456.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>602728.00</t>
+          <t>685718.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4116078.73</t>
+          <t>4845109.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2360036.78</t>
+          <t>3250900.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>868628.09</t>
+          <t>1330311.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>397143.82</t>
+          <t>552948.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60500.00</t>
+          <t>145500.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>121000.00</t>
+          <t>131000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>222790.09</t>
+          <t>238562.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1763782.70</t>
+          <t>1979077.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1070082.05</t>
+          <t>1240148.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>464742.00</t>
+          <t>521341.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>188391.00</t>
+          <t>233391.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49500.00</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>397906.38</t>
+          <t>612901.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1845462.90</t>
+          <t>2288320.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1304571.16</t>
+          <t>2034794.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>749473.00</t>
+          <t>1379826.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>307716.00</t>
+          <t>514547.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46621.00</t>
+          <t>97000.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1219,32 +1219,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>200906.00</t>
+          <t>48621.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1432912.85</t>
+          <t>212906.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>893776.24</t>
+          <t>1601015.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>624653.59</t>
+          <t>1021315.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>220640.00</t>
+          <t>739653.59</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>42392.04</t>
+          <t>250640.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>51500.00</t>
+          <t>87392.04</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1513,32 +1513,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>143669.13</t>
+          <t>51500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>472941.56</t>
+          <t>143669.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>246248.00</t>
+          <t>472941.56</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>246248.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>56500.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1765,32 +1765,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>522412.72</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2801883.70</t>
+          <t>566991.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2273812.04</t>
+          <t>3051457.43</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1222970.71</t>
+          <t>2509450.94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>602555.00</t>
+          <t>1416470.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>86000.00</t>
+          <t>617555.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>70200.00</t>
+          <t>86000.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2059,32 +2059,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>150636.00</t>
+          <t>87982.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>636655.81</t>
+          <t>154136.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>350429.00</t>
+          <t>663246.81</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91595.14</t>
+          <t>367429.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>108095.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>267908.00</t>
+          <t>72000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2311,32 +2311,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>206396.84</t>
+          <t>267908.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>638104.84</t>
+          <t>217280.78</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>517074.00</t>
+          <t>735281.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>338681.00</t>
+          <t>562574.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>42210.69</t>
+          <t>340681.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>117674.00</t>
+          <t>62210.69</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>466754.84</t>
+          <t>173319.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4015737.39</t>
+          <t>484389.84</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>856</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2841583.74</t>
+          <t>4155264.40</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1221430.61</t>
+          <t>3107863.74</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>598659.61</t>
+          <t>1254528.85</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>28491.00</t>
+          <t>608659.61</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>112897.65</t>
+          <t>28491.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,32 +2857,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2804858.57</t>
+          <t>114897.65</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18043638.52</t>
+          <t>3015674.04</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>5080</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13449637.37</t>
+          <t>19710321.98</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5439743.06</t>
+          <t>15081857.65</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>937</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2110297.29</t>
+          <t>6314787.56</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>465000.00</t>
+          <t>2444261.29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1446137.93</t>
+          <t>700000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,32 +3151,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>103961.00</t>
+          <t>1522860.79</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>369476.16</t>
+          <t>103961.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>237886.21</t>
+          <t>369476.16</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>104876.00</t>
+          <t>237886.21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>104876.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,32 +3403,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>64214.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>477149.88</t>
+          <t>73714.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>283926.60</t>
+          <t>633856.34</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>123000.00</t>
+          <t>341537.60</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>30150.00</t>
+          <t>131500.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,32 +3613,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>46150.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3739,32 +3739,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>339139.87</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1869168.39</t>
+          <t>345139.87</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>477</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1293257.92</t>
+          <t>2212726.93</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>739385.67</t>
+          <t>1455499.13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>298168.04</t>
+          <t>1012495.12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>410568.04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,32 +3991,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1082763.19</t>
+          <t>138500.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,32 +4033,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4371794.66</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2830640.28</t>
+          <t>1133763.19</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1527267.74</t>
+          <t>4742228.52</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>732799.94</t>
+          <t>3261458.28</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>1642147.74</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>112212.00</t>
+          <t>747799.94</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,32 +4285,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>879320.74</t>
+          <t>200000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,32 +4327,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4085238.46</t>
+          <t>138400.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1937800.09</t>
+          <t>971831.74</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>845168.13</t>
+          <t>4652603.99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>303000.00</t>
+          <t>2205151.09</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>87988.86</t>
+          <t>1130991.55</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>122000.00</t>
+          <t>371500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,32 +4579,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>340819.57</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,32 +4621,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1667709.17</t>
+          <t>124000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1188555.88</t>
+          <t>394325.29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>468</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>500416.86</t>
+          <t>1946097.17</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>93669.10</t>
+          <t>1469594.12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>38260.00</t>
+          <t>734654.86</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4831,32 +4831,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1149891.68</t>
+          <t>131945.62</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4873,32 +4873,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>5647472.45</t>
+          <t>38260.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3336857.40</t>
+          <t>1232203.68</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1632980.73</t>
+          <t>6207984.36</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>569925.00</t>
+          <t>3741688.40</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>145661.00</t>
+          <t>1895797.73</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>227456.16</t>
+          <t>661478.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,10 +5103,94 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>10 à 19 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>145661.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>236456.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4845109.09</t>
+          <t>4986225.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3250900.91</t>
+          <t>3300118.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1330311.64</t>
+          <t>1439370.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>612901.38</t>
+          <t>614901.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2288320.64</t>
+          <t>2319382.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2034794.00</t>
+          <t>2063294.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1379826.00</t>
+          <t>1424826.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1601015.99</t>
+          <t>1664190.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1021315.24</t>
+          <t>1031315.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>739653.59</t>
+          <t>819653.59</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>566991.72</t>
+          <t>595991.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>726</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3051457.43</t>
+          <t>3067777.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2509450.94</t>
+          <t>2571719.94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1416470.71</t>
+          <t>1419564.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>87982.00</t>
+          <t>91982.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>735281.56</t>
+          <t>737281.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>562574.00</t>
+          <t>571903.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>484389.84</t>
+          <t>528389.84</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>889</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4155264.40</t>
+          <t>4418887.70</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3107863.74</t>
+          <t>3289051.74</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1254528.85</t>
+          <t>1294528.85</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>608659.61</t>
+          <t>618659.61</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>114897.65</t>
+          <t>128897.65</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3015674.04</t>
+          <t>3468263.20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5080</t>
+          <t>5553</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19710321.98</t>
+          <t>22896202.11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15081857.65</t>
+          <t>17620362.49</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6314787.56</t>
+          <t>7526639.56</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2444261.29</t>
+          <t>2957364.97</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>700000.00</t>
+          <t>835000.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1522860.79</t>
+          <t>1713704.94</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>345139.87</t>
+          <t>355139.87</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2212726.93</t>
+          <t>2214726.93</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1455499.13</t>
+          <t>1465499.13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1133763.19</t>
+          <t>1145763.19</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4742228.52</t>
+          <t>4785764.33</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3261458.28</t>
+          <t>3323188.38</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1642147.74</t>
+          <t>1652016.08</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>747799.94</t>
+          <t>777799.94</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>245000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>971831.74</t>
+          <t>1235239.74</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4652603.99</t>
+          <t>5432394.69</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2205151.09</t>
+          <t>2660604.68</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1130991.55</t>
+          <t>1586292.77</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>371500.00</t>
+          <t>636500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>124000.00</t>
+          <t>273879.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>723468.00</t>
+          <t>761218.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5010888.85</t>
+          <t>5035552.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3358517.70</t>
+          <t>3400017.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1446823.51</t>
+          <t>1454276.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>591942.82</t>
+          <t>630936.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2068989.70</t>
+          <t>2158901.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1253148.88</t>
+          <t>1266148.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67163.21</t>
+          <t>82826.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1688508.99</t>
+          <t>1712826.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3168677.18</t>
+          <t>3237900.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2617012.56</t>
+          <t>2660305.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1429564.71</t>
+          <t>1439564.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>100156.00</t>
+          <t>108330.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>159236.00</t>
+          <t>164336.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>734736.81</t>
+          <t>762938.81</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>422429.00</t>
+          <t>432429.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>85500.00</t>
+          <t>99000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>290908.00</t>
+          <t>292908.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>280610.78</t>
+          <t>343940.78</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>762829.56</t>
+          <t>788377.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>585903.00</t>
+          <t>599903.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>72210.69</t>
+          <t>82210.69</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>177319.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2605,32 +2605,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>530389.84</t>
+          <t>181319.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4481971.06</t>
+          <t>530389.84</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3358801.74</t>
+          <t>4508757.06</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1307628.85</t>
+          <t>3408551.74</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>618659.61</t>
+          <t>1320728.85</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>83491.00</t>
+          <t>618659.61</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>132897.65</t>
+          <t>138491.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2899,32 +2899,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3579560.20</t>
+          <t>136897.65</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>23656523.46</t>
+          <t>3677757.20</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>18334223.98</t>
+          <t>24412254.81</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7804065.26</t>
+          <t>19032035.47</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3110864.97</t>
+          <t>8071490.96</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>835000.00</t>
+          <t>3264364.97</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1752580.94</t>
+          <t>835000.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3193,32 +3193,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>639</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>103961.00</t>
+          <t>1791456.94</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>369476.16</t>
+          <t>103961.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>237886.21</t>
+          <t>369476.16</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>104876.00</t>
+          <t>237886.21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3339,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>104876.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3445,32 +3445,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>73714.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>633856.34</t>
+          <t>73714.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>341537.60</t>
+          <t>633856.34</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>131500.00</t>
+          <t>341537.60</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>46150.00</t>
+          <t>131500.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>46150.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>88000.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>355139.87</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2214726.93</t>
+          <t>355139.87</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1465499.13</t>
+          <t>2214726.93</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1012495.12</t>
+          <t>1465499.13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>410568.04</t>
+          <t>1012495.12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>138500.00</t>
+          <t>410568.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>138500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4075,32 +4075,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1151460.19</t>
+          <t>34000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4806664.33</t>
+          <t>1157157.19</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3329688.38</t>
+          <t>4827564.33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1652016.08</t>
+          <t>3336188.38</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>777799.94</t>
+          <t>1652016.08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>245000.00</t>
+          <t>777799.94</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>138400.00</t>
+          <t>245000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1368202.21</t>
+          <t>138400.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5720614.00</t>
+          <t>1501164.68</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3015834.92</t>
+          <t>6008833.31</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1696123.65</t>
+          <t>3329565.16</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>742375.00</t>
+          <t>1805954.53</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>155000.00</t>
+          <t>848250.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>279879.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4663,32 +4663,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>394325.29</t>
+          <t>285879.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2003097.17</t>
+          <t>394325.29</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1514594.12</t>
+          <t>2005097.17</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>777253.75</t>
+          <t>1514594.12</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>131945.62</t>
+          <t>777253.75</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>40260.00</t>
+          <t>131945.62</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4915,32 +4915,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1255073.68</t>
+          <t>40260.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6390119.76</t>
+          <t>1255073.68</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3922575.74</t>
+          <t>6398561.19</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2068709.73</t>
+          <t>3942575.74</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>796659.00</t>
+          <t>2088709.73</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>810159.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>243456.16</t>
+          <t>200000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,10 +5187,52 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>250456.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>601891.72</t>
+          <t>607791.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>762</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3237900.76</t>
+          <t>3269577.29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2660305.18</t>
+          <t>2662305.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>762938.81</t>
+          <t>806226.81</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>432429.00</t>
+          <t>477429.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>208095.14</t>
+          <t>308095.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>292908.00</t>
+          <t>313908.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3677757.20</t>
+          <t>3687757.20</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19032035.47</t>
+          <t>19048085.47</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8071490.96</t>
+          <t>8081490.96</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1255073.68</t>
+          <t>1277943.68</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6398561.19</t>
+          <t>6572255.16</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>661</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3942575.74</t>
+          <t>4103463.08</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2088709.73</t>
+          <t>2241621.73</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>810159.00</t>
+          <t>931840.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>254339.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6355064.09</t>
+          <t>6376555.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4947123.87</t>
+          <t>4952932.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>929508.25</t>
+          <t>935024.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5577151.94</t>
+          <t>5588551.94</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4213391.40</t>
+          <t>4333391.40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1637430.18</t>
+          <t>1700340.18</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>906837.06</t>
+          <t>995420.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>261032.25</t>
+          <t>301032.25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5688</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>23850987.63</t>
+          <t>23860987.63</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3107</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18456223.98</t>
+          <t>18466223.98</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2261017.74</t>
+          <t>2305228.10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1412</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6931946.29</t>
+          <t>6930416.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5752346.20</t>
+          <t>5729846.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1201921.05</t>
+          <t>1191921.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>340369.44</t>
+          <t>327730.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>480</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2628700.26</t>
+          <t>2604112.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>852358.00</t>
+          <t>774841.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>443076.00</t>
+          <t>398076.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99068.05</t>
+          <t>83163.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>790538.38</t>
+          <t>763392.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2659332.59</t>
+          <t>2650081.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2001418.71</t>
+          <t>1958207.73</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1410508.28</t>
+          <t>1308657.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>272000.00</t>
+          <t>227000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>659731.72</t>
+          <t>653861.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>781</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3659322.19</t>
+          <t>3562981.52</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3222413.95</t>
+          <t>3139135.95</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1852274.71</t>
+          <t>1689049.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1064717.34</t>
+          <t>1027468.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>831569.56</t>
+          <t>821969.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>655368.00</t>
+          <t>639868.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>379610.00</t>
+          <t>340681.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5653744.71</t>
+          <t>5645922.71</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4395859.82</t>
+          <t>4369471.82</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1805738.84</t>
+          <t>1707927.84</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>280532.77</t>
+          <t>261032.25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18558487.38</t>
+          <t>18552283.83</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8115492.26</t>
+          <t>8079411.26</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>413887.23</t>
+          <t>397139.87</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2510796.12</t>
+          <t>2331055.30</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1901640.84</t>
+          <t>1643538.92</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1284135.25</t>
+          <t>1055060.51</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>655737.04</t>
+          <t>433568.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1299253.14</t>
+          <t>1293756.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5823780.39</t>
+          <t>5670038.26</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4393428.38</t>
+          <t>4036769.31</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2221473.63</t>
+          <t>2169030.63</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1291722.17</t>
+          <t>1264435.17</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>470000.00</t>
+          <t>425000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>171991.00</t>
+          <t>144991.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1707241.76</t>
+          <t>1556656.97</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6781730.90</t>
+          <t>6344691.79</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3849894.33</t>
+          <t>3564002.92</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2277525.50</t>
+          <t>1900457.65</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1055125.83</t>
+          <t>867508.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>290000.00</t>
+          <t>200000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1604372.63</t>
+          <t>1584017.20</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7575412.91</t>
+          <t>7496015.91</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>726</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5077130.94</t>
+          <t>4798137.64</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3217212.51</t>
+          <t>2933638.27</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1205060.00</t>
+          <t>1126148.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>356903.00</t>
+          <t>228173.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6930416.29</t>
+          <t>6931946.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5729846.20</t>
+          <t>5752346.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1191921.05</t>
+          <t>1201921.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>327730.09</t>
+          <t>340369.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2604112.26</t>
+          <t>2628700.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>774841.00</t>
+          <t>852358.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>398076.00</t>
+          <t>443076.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83163.21</t>
+          <t>99068.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>821969.56</t>
+          <t>831569.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>639868.00</t>
+          <t>655368.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>340681.00</t>
+          <t>379610.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5645922.71</t>
+          <t>5653744.71</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4369471.82</t>
+          <t>4395859.82</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1707927.84</t>
+          <t>1805738.84</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>261032.25</t>
+          <t>280532.77</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>397139.87</t>
+          <t>413887.23</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2331055.30</t>
+          <t>2510796.12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1643538.92</t>
+          <t>1901640.84</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1055060.51</t>
+          <t>1284135.25</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>433568.04</t>
+          <t>655737.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5670038.26</t>
+          <t>5718999.26</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4036769.31</t>
+          <t>4225438.13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2169030.63</t>
+          <t>2197546.63</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1264435.17</t>
+          <t>1291722.17</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1556656.97</t>
+          <t>1707241.76</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6344691.79</t>
+          <t>6781730.90</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3564002.92</t>
+          <t>3849894.33</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1900457.65</t>
+          <t>2277525.50</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>867508.00</t>
+          <t>1055125.83</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>200000.00</t>
+          <t>290000.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1584017.20</t>
+          <t>1604372.63</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4798137.64</t>
+          <t>4891453.64</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2933638.27</t>
+          <t>3022839.27</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3562981.52</t>
+          <t>3659322.19</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3139135.95</t>
+          <t>3177413.95</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1689049.71</t>
+          <t>1829349.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4225438.13</t>
+          <t>4294119.16</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2197546.63</t>
+          <t>2221473.63</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>144991.00</t>
+          <t>171991.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2628700.26</t>
+          <t>2631981.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>852358.00</t>
+          <t>873168.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>763392.38</t>
+          <t>790538.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>530</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2650081.59</t>
+          <t>2687400.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2543766.45</t>
+          <t>2563279.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1958207.73</t>
+          <t>2001418.71</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1308657.40</t>
+          <t>1410508.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>227000.00</t>
+          <t>272000.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3177413.95</t>
+          <t>3222413.95</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1829349.71</t>
+          <t>1852274.71</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>280532.77</t>
+          <t>363767.27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18552283.83</t>
+          <t>18558487.38</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1293756.14</t>
+          <t>1303356.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5718999.26</t>
+          <t>5768914.79</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4294119.16</t>
+          <t>4317852.63</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2261017.74</t>
+          <t>2306017.74</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1711097.68</t>
+          <t>1756097.68</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>312957.62</t>
+          <t>357957.62</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7496015.91</t>
+          <t>7575412.91</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>737</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4891453.64</t>
+          <t>5120130.94</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3022839.27</t>
+          <t>3217212.51</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1126148.00</t>
+          <t>1250060.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>228173.00</t>
+          <t>356903.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>653861.72</t>
+          <t>659731.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1027468.00</t>
+          <t>1064717.34</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8079411.26</t>
+          <t>8115492.26</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1303356.14</t>
+          <t>1308853.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5768914.79</t>
+          <t>5860114.39</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4317852.63</t>
+          <t>4393428.38</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4327,12 +4327,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>425000.00</t>
+          <t>470000.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24378803.42</t>
+          <t>24351628.17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>793</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3787504.79</t>
+          <t>3798794.93</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5803073.93</t>
+          <t>5819203.93</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4640906.78</t>
+          <t>4652636.78</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2008986.11</t>
+          <t>2053986.11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3904,17 +3904,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>91074.00</t>
+          <t>93074.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>645356.34</t>
+          <t>701456.34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3998,17 +3998,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>345037.60</t>
+          <t>408140.60</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4045,17 +4045,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>131500.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4092,17 +4092,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>46150.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4139,37 +4139,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>102190.00</t>
+          <t>48150.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4186,17 +4186,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>102190.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4280,37 +4280,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>429037.23</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,17 +4327,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2808200.60</t>
+          <t>429037.23</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4374,17 +4374,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>473</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2266619.72</t>
+          <t>2808200.60</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1677703.67</t>
+          <t>2266619.72</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>738277.46</t>
+          <t>1677703.67</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4515,17 +4515,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>237767.35</t>
+          <t>738277.46</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>237767.35</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4609,37 +4609,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1417728.36</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4656,17 +4656,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6098687.71</t>
+          <t>1417728.36</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4733592.46</t>
+          <t>6098687.71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4750,17 +4750,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>398</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2270043.41</t>
+          <t>4733592.46</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1400581.59</t>
+          <t>2270043.41</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4822,12 +4822,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4844,17 +4844,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>470000.00</t>
+          <t>1400581.59</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4891,17 +4891,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>171991.00</t>
+          <t>470000.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4938,37 +4938,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1945317.26</t>
+          <t>171991.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4985,17 +4985,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>377</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7931327.86</t>
+          <t>1945317.26</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5010,12 +5010,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4733881.32</t>
+          <t>7931327.86</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5057,12 +5057,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5079,17 +5079,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>494</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2839361.36</t>
+          <t>4733881.32</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5126,17 +5126,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1558490.25</t>
+          <t>2839361.36</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5151,12 +5151,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5173,37 +5173,37 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1558490.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>380000.00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Occitanie</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5220,17 +5220,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>283879.00</t>
+          <t>380000.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5245,12 +5245,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5267,37 +5267,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>603045.72</t>
+          <t>283879.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2710822.42</t>
+          <t>603045.72</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5339,12 +5339,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5361,17 +5361,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>462</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2388636.83</t>
+          <t>2710822.42</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5408,17 +5408,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1597577.26</t>
+          <t>2388636.83</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5433,12 +5433,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5455,17 +5455,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>547274.88</t>
+          <t>1597577.26</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5480,12 +5480,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>42260.00</t>
+          <t>547274.88</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5549,37 +5549,37 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1647551.43</t>
+          <t>42260.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7617984.91</t>
+          <t>1647551.43</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5643,17 +5643,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5215843.65</t>
+          <t>7617984.91</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5690,17 +5690,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>676</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3508462.02</t>
+          <t>5215843.65</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5715,12 +5715,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5737,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1375158.00</t>
+          <t>3508462.02</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>401903.00</t>
+          <t>1375158.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5831,35 +5831,82 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>401903.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>251456.16</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -802,17 +802,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2674426.57</t>
+          <t>2890139.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1784465.91</t>
+          <t>2008003.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>899414.89</t>
+          <t>1021337.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3798794.93</t>
+          <t>3815114.93</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3303397.42</t>
+          <t>3324428.91</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2012100.47</t>
+          <t>2102100.47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1176474.34</t>
+          <t>1221474.34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>189000.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5819203.93</t>
+          <t>5835085.93</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4652636.78</t>
+          <t>4821219.81</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2053986.11</t>
+          <t>2070594.11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>933537.06</t>
+          <t>1055181.06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5714</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24421567.70</t>
+          <t>24444042.70</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19377486.38</t>
+          <t>19420486.38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1797881.18</t>
+          <t>1842881.18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3810,17 +3810,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>95000.00</t>
+          <t>140000.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -802,17 +802,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2890139.57</t>
+          <t>2946256.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2008003.64</t>
+          <t>2173031.14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1021337.89</t>
+          <t>1093249.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>443076.00</t>
+          <t>578777.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>765874.58</t>
+          <t>788748.58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>403748.00</t>
+          <t>468729.02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>80000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3810,17 +3810,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6098687.71</t>
+          <t>6102866.71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2270043.41</t>
+          <t>2315043.41</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6898275.49</t>
+          <t>6908275.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1281092.60</t>
+          <t>1379797.91</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3324428.91</t>
+          <t>3350933.69</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3758659.28</t>
+          <t>3803659.28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24444042.70</t>
+          <t>24531453.78</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19420486.38</t>
+          <t>19489380.84</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8979676.14</t>
+          <t>9135015.17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>286</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4277746.03</t>
+          <t>4380004.41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1842881.18</t>
+          <t>1887881.18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4733592.46</t>
+          <t>4743869.46</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -426,17 +426,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>274</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1116240.91</t>
+          <t>1120169.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -473,17 +473,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7588935.68</t>
+          <t>7708361.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>685</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>569</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7173522.25</t>
+          <t>7272652.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3741595.24</t>
+          <t>3832204.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1857716.53</t>
+          <t>1947716.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1047136.29</t>
+          <t>1227136.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2958128.05</t>
+          <t>2975100.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2173031.14</t>
+          <t>2179708.82</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1093249.89</t>
+          <t>1111354.82</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>578777.00</t>
+          <t>584394.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3127593.12</t>
+          <t>3136072.23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2461716.45</t>
+          <t>2482355.45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>390</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2152864.61</t>
+          <t>2188909.61</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1396556.26</t>
+          <t>1426513.26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>345150.00</t>
+          <t>390150.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>223669.13</t>
+          <t>262709.16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>829693.58</t>
+          <t>935425.61</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>468729.02</t>
+          <t>474144.02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>125000.00</t>
+          <t>166500.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>65400.00</t>
+          <t>105450.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>704537.89</t>
+          <t>708137.89</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2024,17 +2024,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>797</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>737</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3815114.93</t>
+          <t>3870215.18</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3350933.69</t>
+          <t>3386172.68</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2102100.47</t>
+          <t>2143643.02</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2165,17 +2165,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1221474.34</t>
+          <t>1234352.76</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4821219.81</t>
+          <t>4850888.44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>449390.27</t>
+          <t>486034.27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3813658.28</t>
+          <t>3818173.28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3293,17 +3293,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>5436</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24630659.93</t>
+          <t>24751186.24</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19507040.84</t>
+          <t>19551890.84</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>9279956.59</t>
+          <t>9314956.59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4505414.41</t>
+          <t>4753554.41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1803280.94</t>
+          <t>1832380.94</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4656,17 +4656,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>276</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1417728.36</t>
+          <t>1467462.36</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5079,17 +5079,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4787803.32</t>
+          <t>4864405.32</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5126,17 +5126,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2852861.36</t>
+          <t>2897048.05</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>606351.96</t>
+          <t>666322.81</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5361,17 +5361,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2721149.42</t>
+          <t>2961043.50</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5408,17 +5408,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2395065.83</t>
+          <t>2479981.83</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5455,17 +5455,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1597577.26</t>
+          <t>1713851.31</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>594392.76</t>
+          <t>630787.72</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1692551.43</t>
+          <t>1695731.43</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>7731317.27</t>
+          <t>7755701.35</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>759</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>5312303.68</t>
+          <t>5431827.68</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3539335.02</t>
+          <t>3666841.02</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1375158.00</t>
+          <t>1420158.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>446903.00</t>
+          <t>453173.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="329">
   <si>
     <t>dispositif</t>
   </si>
@@ -55,369 +55,378 @@
     <t>1460</t>
   </si>
   <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>257</t>
+    <t>686</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>5722</t>
-  </si>
-  <si>
-    <t>3151</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>171</t>
   </si>
   <si>
@@ -496,7 +505,7 @@
     <t>379</t>
   </si>
   <si>
-    <t>1305</t>
+    <t>1306</t>
   </si>
   <si>
     <t>495</t>
@@ -520,9 +529,6 @@
     <t>215</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>426</t>
   </si>
   <si>
@@ -541,13 +547,13 @@
     <t>7708361.42</t>
   </si>
   <si>
-    <t>7272652.72</t>
-  </si>
-  <si>
-    <t>3832204.36</t>
-  </si>
-  <si>
-    <t>1947716.53</t>
+    <t>7299375.71</t>
+  </si>
+  <si>
+    <t>3833521.71</t>
+  </si>
+  <si>
+    <t>1992716.53</t>
   </si>
   <si>
     <t>1227136.29</t>
@@ -622,7 +628,7 @@
     <t>935425.61</t>
   </si>
   <si>
-    <t>474144.02</t>
+    <t>491144.02</t>
   </si>
   <si>
     <t>166500.00</t>
@@ -826,13 +832,13 @@
     <t>171991.00</t>
   </si>
   <si>
-    <t>2025751.56</t>
-  </si>
-  <si>
-    <t>8041327.86</t>
-  </si>
-  <si>
-    <t>4864405.32</t>
+    <t>2043094.56</t>
+  </si>
+  <si>
+    <t>8098844.86</t>
+  </si>
+  <si>
+    <t>4875640.32</t>
   </si>
   <si>
     <t>2897048.05</t>
@@ -914,9 +920,6 @@
   </si>
   <si>
     <t>76</t>
-  </si>
-  <si>
-    <t>93</t>
   </si>
   <si>
     <t>Auvergne-Rhône-Alpes</t>
@@ -1401,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1430,22 +1433,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1459,22 +1462,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1488,22 +1491,22 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1517,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1549,19 +1552,19 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1575,22 +1578,22 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1604,22 +1607,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1633,22 +1636,22 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1662,22 +1665,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1691,22 +1694,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1720,22 +1723,22 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1749,22 +1752,22 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1778,22 +1781,22 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1807,22 +1810,22 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1836,22 +1839,22 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1865,22 +1868,22 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1894,22 +1897,22 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1926,19 +1929,19 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1955,19 +1958,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1981,22 +1984,22 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2010,22 +2013,22 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2039,22 +2042,22 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2068,22 +2071,22 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2097,22 +2100,22 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2129,19 +2132,19 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H27" t="s">
         <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2158,19 +2161,19 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2184,22 +2187,22 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2213,22 +2216,22 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2245,19 +2248,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2271,22 +2274,22 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2303,19 +2306,19 @@
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2332,19 +2335,19 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2358,22 +2361,22 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2387,22 +2390,22 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2416,22 +2419,22 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2445,22 +2448,22 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2477,19 +2480,19 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2506,19 +2509,19 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
         <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2535,19 +2538,19 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2561,22 +2564,22 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2590,22 +2593,22 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2619,22 +2622,22 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2651,19 +2654,19 @@
         <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2677,22 +2680,22 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2706,22 +2709,22 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2738,19 +2741,19 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2764,22 +2767,22 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2793,22 +2796,22 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2822,22 +2825,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H51" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2851,22 +2854,22 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2883,19 +2886,19 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2909,22 +2912,22 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2941,19 +2944,19 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2967,22 +2970,22 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" t="s">
+        <v>310</v>
+      </c>
+      <c r="H56" t="s">
         <v>295</v>
       </c>
-      <c r="G56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H56" t="s">
-        <v>293</v>
-      </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2996,22 +2999,22 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3025,22 +3028,22 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3054,22 +3057,22 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H59" t="s">
         <v>57</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3086,19 +3089,19 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H60" t="s">
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3112,22 +3115,22 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3141,22 +3144,22 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3170,22 +3173,22 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3199,22 +3202,22 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
         <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3228,22 +3231,22 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3257,22 +3260,22 @@
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3289,19 +3292,19 @@
         <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H67" t="s">
         <v>76</v>
       </c>
       <c r="I67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3315,22 +3318,22 @@
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
         <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3347,19 +3350,19 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3376,19 +3379,19 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3405,19 +3408,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3434,19 +3437,19 @@
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F72" t="s">
+        <v>298</v>
+      </c>
+      <c r="G72" t="s">
+        <v>312</v>
+      </c>
+      <c r="H72" t="s">
         <v>296</v>
       </c>
-      <c r="G72" t="s">
-        <v>311</v>
-      </c>
-      <c r="H72" t="s">
-        <v>294</v>
-      </c>
       <c r="I72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3463,19 +3466,19 @@
         <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F73" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3492,19 +3495,19 @@
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H74" t="s">
         <v>76</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3521,19 +3524,19 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3550,19 +3553,19 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3576,22 +3579,22 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3605,22 +3608,22 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3637,19 +3640,19 @@
         <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H79" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3666,19 +3669,19 @@
         <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3695,19 +3698,19 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3724,19 +3727,19 @@
         <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3753,19 +3756,19 @@
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H83" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3782,19 +3785,19 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3811,19 +3814,19 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
         <v>74</v>
       </c>
       <c r="G85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I85" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3837,22 +3840,22 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
         <v>74</v>
       </c>
       <c r="G86" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H86" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3866,22 +3869,22 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
         <v>74</v>
       </c>
       <c r="G87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H87" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3898,19 +3901,19 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F88" t="s">
         <v>74</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3927,19 +3930,19 @@
         <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F89" t="s">
         <v>74</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
       </c>
       <c r="I89" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3956,19 +3959,19 @@
         <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
         <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H90" t="s">
         <v>76</v>
       </c>
       <c r="I90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3985,19 +3988,19 @@
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F91" t="s">
         <v>74</v>
       </c>
       <c r="G91" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I91" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4011,22 +4014,22 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4040,22 +4043,22 @@
         <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H93" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4069,22 +4072,22 @@
         <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4098,22 +4101,22 @@
         <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H95" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4127,22 +4130,22 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
       </c>
       <c r="I96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4159,19 +4162,19 @@
         <v>87</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H97" t="s">
         <v>76</v>
       </c>
       <c r="I97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4185,22 +4188,22 @@
         <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4214,22 +4217,22 @@
         <v>91</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4243,22 +4246,22 @@
         <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4272,22 +4275,22 @@
         <v>93</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F101" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101" t="s">
+        <v>317</v>
+      </c>
+      <c r="H101" t="s">
         <v>299</v>
       </c>
-      <c r="G101" t="s">
-        <v>316</v>
-      </c>
-      <c r="H101" t="s">
-        <v>297</v>
-      </c>
       <c r="I101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4301,22 +4304,22 @@
         <v>94</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4327,25 +4330,25 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F103" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
       </c>
       <c r="I103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4362,19 +4365,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H104" t="s">
         <v>76</v>
       </c>
       <c r="I104" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4385,25 +4388,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F105" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4414,25 +4417,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4443,25 +4446,25 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H107" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4472,25 +4475,25 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H108" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4501,25 +4504,25 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F109" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H109" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4536,19 +4539,19 @@
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
       </c>
       <c r="I110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4565,19 +4568,19 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G111" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4588,25 +4591,25 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F112" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I112" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4617,25 +4620,25 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F113" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H113" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4646,25 +4649,25 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F114" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4675,25 +4678,25 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H115" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4704,25 +4707,25 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H116" t="s">
         <v>57</v>
       </c>
       <c r="I116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4733,25 +4736,25 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D117" t="s">
         <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H117" t="s">
         <v>76</v>
       </c>
       <c r="I117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4762,25 +4765,25 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D118" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E118" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="327">
   <si>
     <t>dispositif</t>
   </si>
@@ -61,865 +61,859 @@
     <t>258</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>5436</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1120169.91</t>
+  </si>
+  <si>
+    <t>7708361.42</t>
+  </si>
+  <si>
+    <t>7299375.71</t>
+  </si>
+  <si>
+    <t>3833521.71</t>
+  </si>
+  <si>
+    <t>2002716.53</t>
+  </si>
+  <si>
+    <t>1227136.29</t>
+  </si>
+  <si>
+    <t>153188.00</t>
+  </si>
+  <si>
+    <t>345508.82</t>
+  </si>
+  <si>
+    <t>2975100.01</t>
+  </si>
+  <si>
+    <t>2179708.82</t>
+  </si>
+  <si>
+    <t>1111354.82</t>
+  </si>
+  <si>
+    <t>584394.44</t>
+  </si>
+  <si>
+    <t>99068.05</t>
+  </si>
+  <si>
+    <t>963310.30</t>
+  </si>
+  <si>
+    <t>2940268.13</t>
+  </si>
+  <si>
+    <t>3136072.23</t>
+  </si>
+  <si>
+    <t>2482355.45</t>
+  </si>
+  <si>
+    <t>898794.63</t>
+  </si>
+  <si>
+    <t>165141.00</t>
+  </si>
+  <si>
+    <t>54083.00</t>
+  </si>
+  <si>
+    <t>258798.00</t>
+  </si>
+  <si>
+    <t>2188909.61</t>
+  </si>
+  <si>
+    <t>1517954.75</t>
+  </si>
+  <si>
+    <t>1426513.26</t>
+  </si>
+  <si>
+    <t>390150.00</t>
+  </si>
+  <si>
+    <t>272000.00</t>
+  </si>
+  <si>
+    <t>55500.00</t>
+  </si>
+  <si>
+    <t>262709.16</t>
+  </si>
+  <si>
+    <t>935425.61</t>
+  </si>
+  <si>
+    <t>491144.02</t>
+  </si>
+  <si>
+    <t>166500.00</t>
+  </si>
+  <si>
+    <t>105450.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>708137.89</t>
+  </si>
+  <si>
+    <t>3870215.18</t>
+  </si>
+  <si>
+    <t>3386172.68</t>
+  </si>
+  <si>
+    <t>2143643.02</t>
+  </si>
+  <si>
+    <t>1234352.76</t>
+  </si>
+  <si>
+    <t>189000.00</t>
+  </si>
+  <si>
+    <t>114156.00</t>
+  </si>
+  <si>
+    <t>246851.28</t>
+  </si>
+  <si>
+    <t>960875.75</t>
+  </si>
+  <si>
+    <t>730567.78</t>
+  </si>
+  <si>
+    <t>412254.40</t>
+  </si>
+  <si>
+    <t>115500.00</t>
+  </si>
+  <si>
+    <t>391708.00</t>
+  </si>
+  <si>
+    <t>302919.77</t>
+  </si>
+  <si>
+    <t>831569.56</t>
+  </si>
+  <si>
+    <t>700368.00</t>
+  </si>
+  <si>
+    <t>379610.00</t>
+  </si>
+  <si>
+    <t>72210.69</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>212319.00</t>
+  </si>
+  <si>
+    <t>564828.18</t>
+  </si>
+  <si>
+    <t>5835085.93</t>
+  </si>
+  <si>
+    <t>4850888.44</t>
+  </si>
+  <si>
+    <t>2070594.11</t>
+  </si>
+  <si>
+    <t>1056355.86</t>
+  </si>
+  <si>
+    <t>486034.27</t>
+  </si>
+  <si>
+    <t>144897.65</t>
+  </si>
+  <si>
+    <t>3818173.28</t>
+  </si>
+  <si>
+    <t>24751186.24</t>
+  </si>
+  <si>
+    <t>19551890.84</t>
+  </si>
+  <si>
+    <t>9314956.59</t>
+  </si>
+  <si>
+    <t>4753554.41</t>
+  </si>
+  <si>
+    <t>2112881.18</t>
+  </si>
+  <si>
+    <t>1832380.94</t>
+  </si>
+  <si>
+    <t>113961.00</t>
+  </si>
+  <si>
+    <t>465498.16</t>
+  </si>
+  <si>
+    <t>249886.21</t>
+  </si>
+  <si>
+    <t>240110.44</t>
+  </si>
+  <si>
+    <t>192373.00</t>
+  </si>
+  <si>
+    <t>185000.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>93074.00</t>
+  </si>
+  <si>
+    <t>701456.34</t>
+  </si>
+  <si>
+    <t>408140.60</t>
+  </si>
+  <si>
+    <t>155000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>48150.00</t>
+  </si>
+  <si>
+    <t>102190.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>440867.23</t>
+  </si>
+  <si>
+    <t>2808200.60</t>
+  </si>
+  <si>
+    <t>2266619.72</t>
+  </si>
+  <si>
+    <t>1677703.67</t>
+  </si>
+  <si>
+    <t>738277.46</t>
+  </si>
+  <si>
+    <t>237767.35</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>1467462.36</t>
+  </si>
+  <si>
+    <t>6102866.71</t>
+  </si>
+  <si>
+    <t>4743869.46</t>
+  </si>
+  <si>
+    <t>2315043.41</t>
+  </si>
+  <si>
+    <t>1400581.59</t>
+  </si>
+  <si>
+    <t>470000.00</t>
+  </si>
+  <si>
+    <t>171991.00</t>
+  </si>
+  <si>
+    <t>2043094.56</t>
+  </si>
+  <si>
+    <t>8098844.86</t>
+  </si>
+  <si>
+    <t>4875640.32</t>
+  </si>
+  <si>
+    <t>2897048.05</t>
+  </si>
+  <si>
+    <t>1604490.25</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>309739.00</t>
+  </si>
+  <si>
+    <t>666322.81</t>
+  </si>
+  <si>
+    <t>2961043.50</t>
+  </si>
+  <si>
+    <t>2479981.83</t>
+  </si>
+  <si>
+    <t>1713851.31</t>
+  </si>
+  <si>
+    <t>630787.72</t>
+  </si>
+  <si>
+    <t>42260.00</t>
+  </si>
+  <si>
+    <t>1695731.43</t>
+  </si>
+  <si>
+    <t>7755701.35</t>
+  </si>
+  <si>
+    <t>5431827.68</t>
+  </si>
+  <si>
+    <t>3666841.02</t>
+  </si>
+  <si>
+    <t>1420158.00</t>
+  </si>
+  <si>
+    <t>453173.00</t>
+  </si>
+  <si>
+    <t>254114.22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>93</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>5722</t>
-  </si>
-  <si>
-    <t>3151</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>5436</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1120169.91</t>
-  </si>
-  <si>
-    <t>7708361.42</t>
-  </si>
-  <si>
-    <t>7299375.71</t>
-  </si>
-  <si>
-    <t>3833521.71</t>
-  </si>
-  <si>
-    <t>1992716.53</t>
-  </si>
-  <si>
-    <t>1227136.29</t>
-  </si>
-  <si>
-    <t>153188.00</t>
-  </si>
-  <si>
-    <t>345508.82</t>
-  </si>
-  <si>
-    <t>2975100.01</t>
-  </si>
-  <si>
-    <t>2179708.82</t>
-  </si>
-  <si>
-    <t>1111354.82</t>
-  </si>
-  <si>
-    <t>584394.44</t>
-  </si>
-  <si>
-    <t>99068.05</t>
-  </si>
-  <si>
-    <t>963310.30</t>
-  </si>
-  <si>
-    <t>2940268.13</t>
-  </si>
-  <si>
-    <t>3136072.23</t>
-  </si>
-  <si>
-    <t>2482355.45</t>
-  </si>
-  <si>
-    <t>898794.63</t>
-  </si>
-  <si>
-    <t>165141.00</t>
-  </si>
-  <si>
-    <t>54083.00</t>
-  </si>
-  <si>
-    <t>258798.00</t>
-  </si>
-  <si>
-    <t>2188909.61</t>
-  </si>
-  <si>
-    <t>1517954.75</t>
-  </si>
-  <si>
-    <t>1426513.26</t>
-  </si>
-  <si>
-    <t>390150.00</t>
-  </si>
-  <si>
-    <t>272000.00</t>
-  </si>
-  <si>
-    <t>55500.00</t>
-  </si>
-  <si>
-    <t>262709.16</t>
-  </si>
-  <si>
-    <t>935425.61</t>
-  </si>
-  <si>
-    <t>491144.02</t>
-  </si>
-  <si>
-    <t>166500.00</t>
-  </si>
-  <si>
-    <t>105450.00</t>
-  </si>
-  <si>
-    <t>40000.00</t>
-  </si>
-  <si>
-    <t>708137.89</t>
-  </si>
-  <si>
-    <t>3870215.18</t>
-  </si>
-  <si>
-    <t>3386172.68</t>
-  </si>
-  <si>
-    <t>2143643.02</t>
-  </si>
-  <si>
-    <t>1234352.76</t>
-  </si>
-  <si>
-    <t>189000.00</t>
-  </si>
-  <si>
-    <t>114156.00</t>
-  </si>
-  <si>
-    <t>246851.28</t>
-  </si>
-  <si>
-    <t>960875.75</t>
-  </si>
-  <si>
-    <t>730567.78</t>
-  </si>
-  <si>
-    <t>412254.40</t>
-  </si>
-  <si>
-    <t>115500.00</t>
-  </si>
-  <si>
-    <t>391708.00</t>
-  </si>
-  <si>
-    <t>302919.77</t>
-  </si>
-  <si>
-    <t>831569.56</t>
-  </si>
-  <si>
-    <t>700368.00</t>
-  </si>
-  <si>
-    <t>379610.00</t>
-  </si>
-  <si>
-    <t>72210.69</t>
-  </si>
-  <si>
-    <t>110000.00</t>
-  </si>
-  <si>
-    <t>212319.00</t>
-  </si>
-  <si>
-    <t>564828.18</t>
-  </si>
-  <si>
-    <t>5835085.93</t>
-  </si>
-  <si>
-    <t>4850888.44</t>
-  </si>
-  <si>
-    <t>2070594.11</t>
-  </si>
-  <si>
-    <t>1056355.86</t>
-  </si>
-  <si>
-    <t>486034.27</t>
-  </si>
-  <si>
-    <t>144897.65</t>
-  </si>
-  <si>
-    <t>3818173.28</t>
-  </si>
-  <si>
-    <t>24751186.24</t>
-  </si>
-  <si>
-    <t>19551890.84</t>
-  </si>
-  <si>
-    <t>9314956.59</t>
-  </si>
-  <si>
-    <t>4753554.41</t>
-  </si>
-  <si>
-    <t>2112881.18</t>
-  </si>
-  <si>
-    <t>1832380.94</t>
-  </si>
-  <si>
-    <t>113961.00</t>
-  </si>
-  <si>
-    <t>465498.16</t>
-  </si>
-  <si>
-    <t>249886.21</t>
-  </si>
-  <si>
-    <t>240110.44</t>
-  </si>
-  <si>
-    <t>192373.00</t>
-  </si>
-  <si>
-    <t>185000.00</t>
-  </si>
-  <si>
-    <t>25500.00</t>
-  </si>
-  <si>
-    <t>93074.00</t>
-  </si>
-  <si>
-    <t>701456.34</t>
-  </si>
-  <si>
-    <t>408140.60</t>
-  </si>
-  <si>
-    <t>155000.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>48150.00</t>
-  </si>
-  <si>
-    <t>102190.00</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>15500.00</t>
-  </si>
-  <si>
-    <t>429037.23</t>
-  </si>
-  <si>
-    <t>2808200.60</t>
-  </si>
-  <si>
-    <t>2266619.72</t>
-  </si>
-  <si>
-    <t>1677703.67</t>
-  </si>
-  <si>
-    <t>738277.46</t>
-  </si>
-  <si>
-    <t>237767.35</t>
-  </si>
-  <si>
-    <t>36000.00</t>
-  </si>
-  <si>
-    <t>1467462.36</t>
-  </si>
-  <si>
-    <t>6102866.71</t>
-  </si>
-  <si>
-    <t>4743869.46</t>
-  </si>
-  <si>
-    <t>2315043.41</t>
-  </si>
-  <si>
-    <t>1400581.59</t>
-  </si>
-  <si>
-    <t>470000.00</t>
-  </si>
-  <si>
-    <t>171991.00</t>
-  </si>
-  <si>
-    <t>2043094.56</t>
-  </si>
-  <si>
-    <t>8098844.86</t>
-  </si>
-  <si>
-    <t>4875640.32</t>
-  </si>
-  <si>
-    <t>2897048.05</t>
-  </si>
-  <si>
-    <t>1604490.25</t>
-  </si>
-  <si>
-    <t>380000.00</t>
-  </si>
-  <si>
-    <t>309739.00</t>
-  </si>
-  <si>
-    <t>666322.81</t>
-  </si>
-  <si>
-    <t>2961043.50</t>
-  </si>
-  <si>
-    <t>2479981.83</t>
-  </si>
-  <si>
-    <t>1713851.31</t>
-  </si>
-  <si>
-    <t>630787.72</t>
-  </si>
-  <si>
-    <t>42260.00</t>
-  </si>
-  <si>
-    <t>1695731.43</t>
-  </si>
-  <si>
-    <t>7755701.35</t>
-  </si>
-  <si>
-    <t>5431827.68</t>
-  </si>
-  <si>
-    <t>3666841.02</t>
-  </si>
-  <si>
-    <t>1420158.00</t>
-  </si>
-  <si>
-    <t>453173.00</t>
-  </si>
-  <si>
-    <t>254114.22</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>76</t>
   </si>
   <si>
     <t>Auvergne-Rhône-Alpes</t>
@@ -1407,19 +1401,19 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" t="s">
         <v>320</v>
-      </c>
-      <c r="I2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1436,19 +1430,19 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
         <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1465,19 +1459,19 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1494,19 +1488,19 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1523,19 +1517,19 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
         <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1552,19 +1546,19 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
         <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1581,19 +1575,19 @@
         <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1610,19 +1604,19 @@
         <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" t="s">
         <v>320</v>
-      </c>
-      <c r="I9" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1639,19 +1633,19 @@
         <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" t="s">
         <v>292</v>
       </c>
-      <c r="G10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" t="s">
-        <v>295</v>
-      </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1668,19 +1662,19 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1697,19 +1691,19 @@
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1726,19 +1720,19 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1755,19 +1749,19 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1784,19 +1778,19 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" t="s">
         <v>320</v>
-      </c>
-      <c r="I15" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1813,19 +1807,19 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1842,19 +1836,19 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1871,19 +1865,19 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" t="s">
         <v>293</v>
       </c>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-      <c r="H18" t="s">
-        <v>296</v>
-      </c>
       <c r="I18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1900,19 +1894,19 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1929,19 +1923,19 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1958,19 +1952,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1984,22 +1978,22 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" t="s">
         <v>320</v>
-      </c>
-      <c r="I22" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2013,22 +2007,22 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2042,22 +2036,22 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2071,22 +2065,22 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2100,22 +2094,22 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2132,19 +2126,19 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
         <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2161,19 +2155,19 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2187,22 +2181,22 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I29" t="s">
         <v>320</v>
-      </c>
-      <c r="I29" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2216,22 +2210,22 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2248,19 +2242,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2274,22 +2268,22 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2306,19 +2300,19 @@
         <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2335,19 +2329,19 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2361,22 +2355,22 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I35" t="s">
         <v>320</v>
-      </c>
-      <c r="I35" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2390,22 +2384,22 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2419,22 +2413,22 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2448,22 +2442,22 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2480,19 +2474,19 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2509,19 +2503,19 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
         <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2538,19 +2532,19 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2564,22 +2558,22 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
+        <v>318</v>
+      </c>
+      <c r="I42" t="s">
         <v>320</v>
-      </c>
-      <c r="I42" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2593,22 +2587,22 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2622,22 +2616,22 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2654,19 +2648,19 @@
         <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2680,22 +2674,22 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2709,22 +2703,22 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2741,19 +2735,19 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s">
+        <v>318</v>
+      </c>
+      <c r="I48" t="s">
         <v>320</v>
-      </c>
-      <c r="I48" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2767,22 +2761,22 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H49" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2796,22 +2790,22 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" t="s">
         <v>296</v>
       </c>
-      <c r="G50" t="s">
-        <v>309</v>
-      </c>
-      <c r="H50" t="s">
-        <v>299</v>
-      </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2825,22 +2819,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2854,22 +2848,22 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2886,19 +2880,19 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2912,22 +2906,22 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2944,19 +2938,19 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H55" t="s">
+        <v>318</v>
+      </c>
+      <c r="I55" t="s">
         <v>320</v>
-      </c>
-      <c r="I55" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2970,22 +2964,22 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2999,22 +2993,22 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3028,22 +3022,22 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H58" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3057,22 +3051,22 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H59" t="s">
         <v>57</v>
       </c>
       <c r="I59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3089,19 +3083,19 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H60" t="s">
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3115,22 +3109,22 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3144,22 +3138,22 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H62" t="s">
+        <v>318</v>
+      </c>
+      <c r="I62" t="s">
         <v>320</v>
-      </c>
-      <c r="I62" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3173,22 +3167,22 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3202,22 +3196,22 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s">
         <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3231,22 +3225,22 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H65" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3260,22 +3254,22 @@
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3292,19 +3286,19 @@
         <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H67" t="s">
         <v>76</v>
       </c>
       <c r="I67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3318,22 +3312,22 @@
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
         <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3350,19 +3344,19 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H69" t="s">
+        <v>318</v>
+      </c>
+      <c r="I69" t="s">
         <v>320</v>
-      </c>
-      <c r="I69" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3379,19 +3373,19 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3408,19 +3402,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I71" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3437,19 +3431,19 @@
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H72" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3466,19 +3460,19 @@
         <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F73" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3495,19 +3489,19 @@
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H74" t="s">
         <v>76</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3524,19 +3518,19 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F75" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3553,19 +3547,19 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F76" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H76" t="s">
+        <v>318</v>
+      </c>
+      <c r="I76" t="s">
         <v>320</v>
-      </c>
-      <c r="I76" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3579,22 +3573,22 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3608,22 +3602,22 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F78" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H78" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3640,19 +3634,19 @@
         <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F79" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3669,19 +3663,19 @@
         <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F80" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3698,19 +3692,19 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F81" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I81" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3727,19 +3721,19 @@
         <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H82" t="s">
+        <v>318</v>
+      </c>
+      <c r="I82" t="s">
         <v>320</v>
-      </c>
-      <c r="I82" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3756,19 +3750,19 @@
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3785,19 +3779,19 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H84" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3814,19 +3808,19 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
         <v>74</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
+        <v>318</v>
+      </c>
+      <c r="I85" t="s">
         <v>320</v>
-      </c>
-      <c r="I85" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3840,22 +3834,22 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F86" t="s">
         <v>74</v>
       </c>
       <c r="G86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3869,22 +3863,22 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F87" t="s">
         <v>74</v>
       </c>
       <c r="G87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H87" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3901,19 +3895,19 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
         <v>74</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H88" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3930,19 +3924,19 @@
         <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F89" t="s">
         <v>74</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
       </c>
       <c r="I89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3959,19 +3953,19 @@
         <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F90" t="s">
         <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H90" t="s">
         <v>76</v>
       </c>
       <c r="I90" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3988,19 +3982,19 @@
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
         <v>74</v>
       </c>
       <c r="G91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4014,22 +4008,22 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H92" t="s">
+        <v>318</v>
+      </c>
+      <c r="I92" t="s">
         <v>320</v>
-      </c>
-      <c r="I92" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4043,22 +4037,22 @@
         <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4072,22 +4066,22 @@
         <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I94" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4101,22 +4095,22 @@
         <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4130,22 +4124,22 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
       </c>
       <c r="I96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4162,19 +4156,19 @@
         <v>87</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H97" t="s">
         <v>76</v>
       </c>
       <c r="I97" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4188,22 +4182,22 @@
         <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4217,22 +4211,22 @@
         <v>91</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H99" t="s">
+        <v>318</v>
+      </c>
+      <c r="I99" t="s">
         <v>320</v>
-      </c>
-      <c r="I99" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4246,22 +4240,22 @@
         <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I100" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4275,22 +4269,22 @@
         <v>93</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H101" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4304,22 +4298,22 @@
         <v>94</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4333,22 +4327,22 @@
         <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G103" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
       </c>
       <c r="I103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4365,19 +4359,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H104" t="s">
         <v>76</v>
       </c>
       <c r="I104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4391,22 +4385,22 @@
         <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H105" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I105" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4420,22 +4414,22 @@
         <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G106" t="s">
+        <v>316</v>
+      </c>
+      <c r="H106" t="s">
         <v>318</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>320</v>
-      </c>
-      <c r="I106" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4449,22 +4443,22 @@
         <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H107" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I107" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4478,22 +4472,22 @@
         <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H108" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I108" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4510,19 +4504,19 @@
         <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G109" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I109" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4539,19 +4533,19 @@
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
       </c>
       <c r="I110" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4568,19 +4562,19 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4594,22 +4588,22 @@
         <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H112" t="s">
+        <v>318</v>
+      </c>
+      <c r="I112" t="s">
         <v>320</v>
-      </c>
-      <c r="I112" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4623,22 +4617,22 @@
         <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H113" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4652,22 +4646,22 @@
         <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H114" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4681,22 +4675,22 @@
         <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H115" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4710,22 +4704,22 @@
         <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G116" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H116" t="s">
         <v>57</v>
       </c>
       <c r="I116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4742,19 +4736,19 @@
         <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
         <v>76</v>
       </c>
       <c r="I117" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4771,19 +4765,19 @@
         <v>100</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="G118" t="s">
+        <v>317</v>
+      </c>
+      <c r="H118" t="s">
         <v>319</v>
       </c>
-      <c r="H118" t="s">
-        <v>321</v>
-      </c>
       <c r="I118" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -214,7 +214,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>1142</t>
+    <t>1143</t>
   </si>
   <si>
     <t>5722</t>
@@ -226,7 +226,7 @@
     <t>1122</t>
   </si>
   <si>
-    <t>326</t>
+    <t>327</t>
   </si>
   <si>
     <t>56</t>
@@ -325,7 +325,7 @@
     <t>1781</t>
   </si>
   <si>
-    <t>759</t>
+    <t>760</t>
   </si>
   <si>
     <t>271</t>
@@ -463,7 +463,7 @@
     <t>1014</t>
   </si>
   <si>
-    <t>288</t>
+    <t>289</t>
   </si>
   <si>
     <t>621</t>
@@ -715,7 +715,7 @@
     <t>144897.65</t>
   </si>
   <si>
-    <t>3818173.28</t>
+    <t>3863173.28</t>
   </si>
   <si>
     <t>24751186.24</t>
@@ -727,7 +727,7 @@
     <t>9314956.59</t>
   </si>
   <si>
-    <t>4753554.41</t>
+    <t>4763554.41</t>
   </si>
   <si>
     <t>2112881.18</t>
@@ -871,7 +871,7 @@
     <t>7755701.35</t>
   </si>
   <si>
-    <t>5431827.68</t>
+    <t>5438573.09</t>
   </si>
   <si>
     <t>3666841.02</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -199,7 +199,7 @@
     <t>164</t>
   </si>
   <si>
-    <t>1026</t>
+    <t>1027</t>
   </si>
   <si>
     <t>514</t>
@@ -436,7 +436,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>840</t>
+    <t>841</t>
   </si>
   <si>
     <t>398</t>
@@ -697,7 +697,7 @@
     <t>564828.18</t>
   </si>
   <si>
-    <t>5835085.93</t>
+    <t>5845085.93</t>
   </si>
   <si>
     <t>4850888.44</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -220,13 +220,13 @@
     <t>5722</t>
   </si>
   <si>
-    <t>3151</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>327</t>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>328</t>
   </si>
   <si>
     <t>56</t>
@@ -463,7 +463,7 @@
     <t>1014</t>
   </si>
   <si>
-    <t>289</t>
+    <t>290</t>
   </si>
   <si>
     <t>621</t>
@@ -721,13 +721,13 @@
     <t>24751186.24</t>
   </si>
   <si>
-    <t>19551890.84</t>
-  </si>
-  <si>
-    <t>9314956.59</t>
-  </si>
-  <si>
-    <t>4763554.41</t>
+    <t>19638645.84</t>
+  </si>
+  <si>
+    <t>9375066.87</t>
+  </si>
+  <si>
+    <t>4807769.20</t>
   </si>
   <si>
     <t>2112881.18</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -52,7 +52,7 @@
     <t>295</t>
   </si>
   <si>
-    <t>1460</t>
+    <t>1462</t>
   </si>
   <si>
     <t>686</t>
@@ -214,7 +214,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>1143</t>
+    <t>1144</t>
   </si>
   <si>
     <t>5722</t>
@@ -538,7 +538,7 @@
     <t>1120169.91</t>
   </si>
   <si>
-    <t>7708361.42</t>
+    <t>7747360.31</t>
   </si>
   <si>
     <t>7299375.71</t>
@@ -715,7 +715,7 @@
     <t>144897.65</t>
   </si>
   <si>
-    <t>3863173.28</t>
+    <t>3896548.28</t>
   </si>
   <si>
     <t>24751186.24</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="328">
   <si>
     <t>dispositif</t>
   </si>
@@ -49,426 +49,435 @@
     <t>VOLET2</t>
   </si>
   <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>295</t>
   </si>
   <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>5722</t>
-  </si>
-  <si>
-    <t>3153</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>632</t>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>5436</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>621</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>5436</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
     <t>226</t>
   </si>
   <si>
@@ -508,9 +517,6 @@
     <t>176</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
@@ -535,7 +541,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>1120169.91</t>
+    <t>1124197.69</t>
   </si>
   <si>
     <t>7747360.31</t>
@@ -544,7 +550,7 @@
     <t>7299375.71</t>
   </si>
   <si>
-    <t>3833521.71</t>
+    <t>3861769.71</t>
   </si>
   <si>
     <t>2002716.53</t>
@@ -730,7 +736,7 @@
     <t>4807769.20</t>
   </si>
   <si>
-    <t>2112881.18</t>
+    <t>2202881.18</t>
   </si>
   <si>
     <t>1832380.94</t>
@@ -739,19 +745,19 @@
     <t>113961.00</t>
   </si>
   <si>
-    <t>465498.16</t>
+    <t>525445.16</t>
   </si>
   <si>
     <t>249886.21</t>
   </si>
   <si>
-    <t>240110.44</t>
-  </si>
-  <si>
-    <t>192373.00</t>
-  </si>
-  <si>
-    <t>185000.00</t>
+    <t>414666.88</t>
+  </si>
+  <si>
+    <t>348746.00</t>
+  </si>
+  <si>
+    <t>275000.00</t>
   </si>
   <si>
     <t>25500.00</t>
@@ -896,9 +902,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>04</t>
@@ -1398,22 +1401,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1427,22 +1430,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1456,22 +1459,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1485,22 +1488,22 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1514,22 +1517,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1543,22 +1546,22 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1572,22 +1575,22 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1601,22 +1604,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1630,22 +1633,22 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1659,22 +1662,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1688,22 +1691,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1717,22 +1720,22 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1746,22 +1749,22 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1775,22 +1778,22 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1804,22 +1807,22 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1833,22 +1836,22 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1862,22 +1865,22 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1891,22 +1894,22 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1923,19 +1926,19 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1952,19 +1955,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1978,22 +1981,22 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2007,22 +2010,22 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2036,22 +2039,22 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2065,22 +2068,22 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2094,22 +2097,22 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2126,19 +2129,19 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2155,19 +2158,19 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2181,22 +2184,22 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2210,22 +2213,22 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2242,19 +2245,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2268,22 +2271,22 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2297,22 +2300,22 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2329,19 +2332,19 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2355,22 +2358,22 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2384,22 +2387,22 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2413,22 +2416,22 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2442,22 +2445,22 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H38" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2474,19 +2477,19 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2500,22 +2503,22 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2532,19 +2535,19 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2558,22 +2561,22 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2587,22 +2590,22 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H43" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2616,22 +2619,22 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2645,22 +2648,22 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2674,22 +2677,22 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2703,22 +2706,22 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2735,19 +2738,19 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2761,22 +2764,22 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H49" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2790,22 +2793,22 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2819,22 +2822,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2848,22 +2851,22 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2877,22 +2880,22 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2906,22 +2909,22 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2938,19 +2941,19 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2964,22 +2967,22 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>309</v>
+      </c>
+      <c r="H56" t="s">
         <v>294</v>
       </c>
-      <c r="G56" t="s">
-        <v>308</v>
-      </c>
-      <c r="H56" t="s">
-        <v>292</v>
-      </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2993,22 +2996,22 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3022,22 +3025,22 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3051,22 +3054,22 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H59" t="s">
         <v>57</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3083,19 +3086,19 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3109,22 +3112,22 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3138,22 +3141,22 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3167,22 +3170,22 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H63" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3196,22 +3199,22 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
         <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3225,22 +3228,22 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H65" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3254,22 +3257,22 @@
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3283,22 +3286,22 @@
         <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3312,22 +3315,22 @@
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
         <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3344,19 +3347,19 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3370,22 +3373,22 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H70" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3402,19 +3405,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3428,22 +3431,22 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F72" t="s">
+        <v>296</v>
+      </c>
+      <c r="G72" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" t="s">
         <v>295</v>
       </c>
-      <c r="G72" t="s">
-        <v>310</v>
-      </c>
-      <c r="H72" t="s">
-        <v>293</v>
-      </c>
       <c r="I72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3454,25 +3457,25 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
         <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3483,25 +3486,25 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3512,25 +3515,25 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3541,25 +3544,25 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G76" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3570,25 +3573,25 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H77" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3599,25 +3602,25 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3628,25 +3631,25 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H79" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3657,25 +3660,25 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3686,25 +3689,25 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3715,25 +3718,25 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3750,19 +3753,19 @@
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3776,22 +3779,22 @@
         <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
+        <v>298</v>
+      </c>
+      <c r="G84" t="s">
+        <v>313</v>
+      </c>
+      <c r="H84" t="s">
         <v>297</v>
       </c>
-      <c r="G84" t="s">
-        <v>312</v>
-      </c>
-      <c r="H84" t="s">
-        <v>296</v>
-      </c>
       <c r="I84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3802,25 +3805,25 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I85" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3831,25 +3834,25 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I86" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3860,25 +3863,25 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I87" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3889,25 +3892,25 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3921,22 +3924,22 @@
         <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
       </c>
       <c r="I89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3947,25 +3950,25 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s">
         <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I90" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3982,19 +3985,19 @@
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I91" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4005,25 +4008,25 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I92" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4034,25 +4037,25 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H93" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4063,25 +4066,25 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I94" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4092,25 +4095,25 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H95" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4124,22 +4127,22 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
       </c>
       <c r="I96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4150,25 +4153,25 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" t="s">
         <v>76</v>
       </c>
-      <c r="D97" t="s">
-        <v>87</v>
-      </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4182,22 +4185,22 @@
         <v>56</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4208,25 +4211,25 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H99" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4237,25 +4240,25 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4266,25 +4269,25 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H101" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4295,25 +4298,25 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H102" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4324,25 +4327,25 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
       </c>
       <c r="I103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4359,19 +4362,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4382,25 +4385,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I105" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4411,25 +4414,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4440,25 +4443,25 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F107" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4469,25 +4472,25 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F108" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H108" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4498,25 +4501,25 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F109" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4527,25 +4530,25 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F110" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
       </c>
       <c r="I110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4562,19 +4565,19 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H111" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4585,25 +4588,25 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4614,25 +4617,25 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I113" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4643,25 +4646,25 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4672,25 +4675,25 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4701,25 +4704,25 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H116" t="s">
         <v>57</v>
       </c>
       <c r="I116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4730,25 +4733,25 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D117" t="s">
         <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4759,25 +4762,25 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E118" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F118" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G118" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H118" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -109,10 +109,10 @@
     <t>70</t>
   </si>
   <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>172</t>
+    <t>420</t>
+  </si>
+  <si>
+    <t>173</t>
   </si>
   <si>
     <t>87</t>
@@ -604,10 +604,10 @@
     <t>258798.00</t>
   </si>
   <si>
-    <t>2188909.61</t>
-  </si>
-  <si>
-    <t>1517954.75</t>
+    <t>2190761.61</t>
+  </si>
+  <si>
+    <t>1520083.75</t>
   </si>
   <si>
     <t>1426513.26</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="329">
   <si>
     <t>dispositif</t>
   </si>
@@ -283,13 +283,16 @@
     <t>295</t>
   </si>
   <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>194</t>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
   <si>
     <t>411</t>
@@ -814,22 +817,22 @@
     <t>1467462.36</t>
   </si>
   <si>
-    <t>6102866.71</t>
-  </si>
-  <si>
-    <t>4743869.46</t>
-  </si>
-  <si>
-    <t>2315043.41</t>
-  </si>
-  <si>
-    <t>1400581.59</t>
+    <t>6131138.03</t>
+  </si>
+  <si>
+    <t>4756053.80</t>
+  </si>
+  <si>
+    <t>2334088.39</t>
+  </si>
+  <si>
+    <t>1402591.48</t>
   </si>
   <si>
     <t>470000.00</t>
   </si>
   <si>
-    <t>171991.00</t>
+    <t>174265.00</t>
   </si>
   <si>
     <t>2043094.56</t>
@@ -1401,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1430,22 +1433,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1459,22 +1462,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1488,22 +1491,22 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1517,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1549,19 +1552,19 @@
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1575,22 +1578,22 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1604,22 +1607,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1633,22 +1636,22 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1662,22 +1665,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1691,22 +1694,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1720,22 +1723,22 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1749,22 +1752,22 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1778,22 +1781,22 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1807,22 +1810,22 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1836,22 +1839,22 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1865,22 +1868,22 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1894,22 +1897,22 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1926,19 +1929,19 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1955,19 +1958,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1981,22 +1984,22 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
         <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2010,22 +2013,22 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
         <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2039,22 +2042,22 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
         <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2068,22 +2071,22 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2097,22 +2100,22 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
         <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2129,19 +2132,19 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
         <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H27" t="s">
         <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2158,19 +2161,19 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
         <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2184,22 +2187,22 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2213,22 +2216,22 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2245,19 +2248,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2271,22 +2274,22 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2300,22 +2303,22 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2332,19 +2335,19 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2358,22 +2361,22 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2387,22 +2390,22 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2416,22 +2419,22 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2448,19 +2451,19 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2477,19 +2480,19 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2503,22 +2506,22 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
         <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2535,19 +2538,19 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2561,22 +2564,22 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2590,22 +2593,22 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2619,22 +2622,22 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2648,22 +2651,22 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2677,22 +2680,22 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2706,22 +2709,22 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2738,19 +2741,19 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2764,22 +2767,22 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" t="s">
+        <v>309</v>
+      </c>
+      <c r="H49" t="s">
         <v>295</v>
       </c>
-      <c r="G49" t="s">
-        <v>308</v>
-      </c>
-      <c r="H49" t="s">
-        <v>294</v>
-      </c>
       <c r="I49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2793,22 +2796,22 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2822,22 +2825,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2851,22 +2854,22 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2883,19 +2886,19 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2909,22 +2912,22 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2941,19 +2944,19 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
         <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2967,22 +2970,22 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F56" t="s">
         <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2996,22 +2999,22 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F57" t="s">
         <v>74</v>
       </c>
       <c r="G57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3025,22 +3028,22 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F58" t="s">
         <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3054,22 +3057,22 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H59" t="s">
         <v>57</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3086,19 +3089,19 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H60" t="s">
         <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3112,22 +3115,22 @@
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F61" t="s">
         <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3141,22 +3144,22 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F62" t="s">
         <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3170,22 +3173,22 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
         <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3199,22 +3202,22 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F64" t="s">
         <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3228,22 +3231,22 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3257,22 +3260,22 @@
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3289,19 +3292,19 @@
         <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H67" t="s">
         <v>77</v>
       </c>
       <c r="I67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3315,22 +3318,22 @@
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
         <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3347,19 +3350,19 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3373,22 +3376,22 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3405,19 +3408,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H71" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3431,22 +3434,22 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F72" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" t="s">
+        <v>312</v>
+      </c>
+      <c r="H72" t="s">
         <v>296</v>
       </c>
-      <c r="G72" t="s">
-        <v>311</v>
-      </c>
-      <c r="H72" t="s">
-        <v>295</v>
-      </c>
       <c r="I72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3463,19 +3466,19 @@
         <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3492,19 +3495,19 @@
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H74" t="s">
         <v>77</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3521,19 +3524,19 @@
         <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3550,19 +3553,19 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3576,22 +3579,22 @@
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3605,22 +3608,22 @@
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F78" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H78" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3637,19 +3640,19 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3666,19 +3669,19 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3695,19 +3698,19 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3724,19 +3727,19 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3753,19 +3756,19 @@
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3782,19 +3785,19 @@
         <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F84" t="s">
+        <v>299</v>
+      </c>
+      <c r="G84" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84" t="s">
         <v>298</v>
       </c>
-      <c r="G84" t="s">
-        <v>313</v>
-      </c>
-      <c r="H84" t="s">
-        <v>297</v>
-      </c>
       <c r="I84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3811,19 +3814,19 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I85" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3837,22 +3840,22 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G86" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3866,22 +3869,22 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H87" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3898,19 +3901,19 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3927,19 +3930,19 @@
         <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
       </c>
       <c r="I89" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3956,19 +3959,19 @@
         <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H90" t="s">
         <v>77</v>
       </c>
       <c r="I90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3985,19 +3988,19 @@
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I91" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4011,22 +4014,22 @@
         <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4040,22 +4043,22 @@
         <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4069,22 +4072,22 @@
         <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4098,22 +4101,22 @@
         <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4124,25 +4127,25 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
       </c>
       <c r="I96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4159,19 +4162,19 @@
         <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H97" t="s">
         <v>77</v>
       </c>
       <c r="I97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4182,25 +4185,25 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4211,25 +4214,25 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H99" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4240,25 +4243,25 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4269,25 +4272,25 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F101" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4298,25 +4301,25 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4327,25 +4330,25 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
         <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
       </c>
       <c r="I103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4362,19 +4365,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H104" t="s">
         <v>77</v>
       </c>
       <c r="I104" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4385,25 +4388,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4414,25 +4417,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4443,25 +4446,25 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4472,25 +4475,25 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4501,25 +4504,25 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H109" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4530,25 +4533,25 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
       </c>
       <c r="I110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4565,19 +4568,19 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4588,25 +4591,25 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I112" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4617,25 +4620,25 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4646,25 +4649,25 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4675,25 +4678,25 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4704,25 +4707,25 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H116" t="s">
         <v>57</v>
       </c>
       <c r="I116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4739,19 +4742,19 @@
         <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H117" t="s">
         <v>77</v>
       </c>
       <c r="I117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4762,25 +4765,25 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -289,7 +289,7 @@
     <t>494</t>
   </si>
   <si>
-    <t>200</t>
+    <t>201</t>
   </si>
   <si>
     <t>73</t>
@@ -823,7 +823,7 @@
     <t>4756053.80</t>
   </si>
   <si>
-    <t>2334088.39</t>
+    <t>2335051.39</t>
   </si>
   <si>
     <t>1402591.48</t>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -52,853 +52,853 @@
     <t>296</t>
   </si>
   <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>260</t>
+    <t>1469</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>5722</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>5436</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1124197.69</t>
+  </si>
+  <si>
+    <t>7838977.62</t>
+  </si>
+  <si>
+    <t>7323650.32</t>
+  </si>
+  <si>
+    <t>3876838.71</t>
+  </si>
+  <si>
+    <t>2007363.53</t>
+  </si>
+  <si>
+    <t>1227136.29</t>
+  </si>
+  <si>
+    <t>153188.00</t>
+  </si>
+  <si>
+    <t>345508.82</t>
+  </si>
+  <si>
+    <t>2975100.01</t>
+  </si>
+  <si>
+    <t>2179708.82</t>
+  </si>
+  <si>
+    <t>1111354.82</t>
+  </si>
+  <si>
+    <t>584394.44</t>
+  </si>
+  <si>
+    <t>99068.05</t>
+  </si>
+  <si>
+    <t>963310.30</t>
+  </si>
+  <si>
+    <t>2954919.41</t>
+  </si>
+  <si>
+    <t>3155353.56</t>
+  </si>
+  <si>
+    <t>2497444.45</t>
+  </si>
+  <si>
+    <t>898794.63</t>
+  </si>
+  <si>
+    <t>165141.00</t>
+  </si>
+  <si>
+    <t>54509.00</t>
+  </si>
+  <si>
+    <t>258798.00</t>
+  </si>
+  <si>
+    <t>2190761.61</t>
+  </si>
+  <si>
+    <t>1520083.75</t>
+  </si>
+  <si>
+    <t>1426513.26</t>
+  </si>
+  <si>
+    <t>390150.00</t>
+  </si>
+  <si>
+    <t>272000.00</t>
+  </si>
+  <si>
+    <t>55500.00</t>
+  </si>
+  <si>
+    <t>262709.16</t>
+  </si>
+  <si>
+    <t>935425.61</t>
+  </si>
+  <si>
+    <t>491144.02</t>
+  </si>
+  <si>
+    <t>166500.00</t>
+  </si>
+  <si>
+    <t>105450.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>708137.89</t>
+  </si>
+  <si>
+    <t>3870215.18</t>
+  </si>
+  <si>
+    <t>3386172.68</t>
+  </si>
+  <si>
+    <t>2143643.02</t>
+  </si>
+  <si>
+    <t>1234352.76</t>
+  </si>
+  <si>
+    <t>189000.00</t>
+  </si>
+  <si>
+    <t>114156.00</t>
+  </si>
+  <si>
+    <t>246851.28</t>
+  </si>
+  <si>
+    <t>960875.75</t>
+  </si>
+  <si>
+    <t>730567.78</t>
+  </si>
+  <si>
+    <t>412254.40</t>
+  </si>
+  <si>
+    <t>115500.00</t>
+  </si>
+  <si>
+    <t>391708.00</t>
+  </si>
+  <si>
+    <t>302919.77</t>
+  </si>
+  <si>
+    <t>831569.56</t>
+  </si>
+  <si>
+    <t>700368.00</t>
+  </si>
+  <si>
+    <t>379610.00</t>
+  </si>
+  <si>
+    <t>72210.69</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>212319.00</t>
+  </si>
+  <si>
+    <t>564828.18</t>
+  </si>
+  <si>
+    <t>5845085.93</t>
+  </si>
+  <si>
+    <t>4850888.44</t>
+  </si>
+  <si>
+    <t>2070594.11</t>
+  </si>
+  <si>
+    <t>1056355.86</t>
+  </si>
+  <si>
+    <t>486034.27</t>
+  </si>
+  <si>
+    <t>144897.65</t>
+  </si>
+  <si>
+    <t>3896548.28</t>
+  </si>
+  <si>
+    <t>24751186.24</t>
+  </si>
+  <si>
+    <t>19638645.84</t>
+  </si>
+  <si>
+    <t>9375066.87</t>
+  </si>
+  <si>
+    <t>4807769.20</t>
+  </si>
+  <si>
+    <t>2202881.18</t>
+  </si>
+  <si>
+    <t>1832380.94</t>
+  </si>
+  <si>
+    <t>113961.00</t>
+  </si>
+  <si>
+    <t>525445.16</t>
+  </si>
+  <si>
+    <t>249886.21</t>
+  </si>
+  <si>
+    <t>414666.88</t>
+  </si>
+  <si>
+    <t>348746.00</t>
+  </si>
+  <si>
+    <t>275000.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>93074.00</t>
+  </si>
+  <si>
+    <t>701456.34</t>
+  </si>
+  <si>
+    <t>408140.60</t>
+  </si>
+  <si>
+    <t>155000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>48150.00</t>
+  </si>
+  <si>
+    <t>102190.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>440867.23</t>
+  </si>
+  <si>
+    <t>2808200.60</t>
+  </si>
+  <si>
+    <t>2266619.72</t>
+  </si>
+  <si>
+    <t>1677703.67</t>
+  </si>
+  <si>
+    <t>738277.46</t>
+  </si>
+  <si>
+    <t>237767.35</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>1467462.36</t>
+  </si>
+  <si>
+    <t>6131459.03</t>
+  </si>
+  <si>
+    <t>4756653.80</t>
+  </si>
+  <si>
+    <t>2335401.39</t>
+  </si>
+  <si>
+    <t>1402591.48</t>
+  </si>
+  <si>
+    <t>470000.00</t>
+  </si>
+  <si>
+    <t>176465.00</t>
+  </si>
+  <si>
+    <t>2043094.56</t>
+  </si>
+  <si>
+    <t>8098844.86</t>
+  </si>
+  <si>
+    <t>4875640.32</t>
+  </si>
+  <si>
+    <t>2897048.05</t>
+  </si>
+  <si>
+    <t>1604490.25</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>309739.00</t>
+  </si>
+  <si>
+    <t>666322.81</t>
+  </si>
+  <si>
+    <t>2961043.50</t>
+  </si>
+  <si>
+    <t>2479981.83</t>
+  </si>
+  <si>
+    <t>1713851.31</t>
+  </si>
+  <si>
+    <t>630787.72</t>
+  </si>
+  <si>
+    <t>42260.00</t>
+  </si>
+  <si>
+    <t>1695731.43</t>
+  </si>
+  <si>
+    <t>7755701.35</t>
+  </si>
+  <si>
+    <t>5438573.09</t>
+  </si>
+  <si>
+    <t>3666841.02</t>
+  </si>
+  <si>
+    <t>1420158.00</t>
+  </si>
+  <si>
+    <t>453173.00</t>
+  </si>
+  <si>
+    <t>254114.22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>94</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>5722</t>
-  </si>
-  <si>
-    <t>3153</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>5436</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1124197.69</t>
-  </si>
-  <si>
-    <t>7747360.31</t>
-  </si>
-  <si>
-    <t>7299375.71</t>
-  </si>
-  <si>
-    <t>3861769.71</t>
-  </si>
-  <si>
-    <t>2002716.53</t>
-  </si>
-  <si>
-    <t>1227136.29</t>
-  </si>
-  <si>
-    <t>153188.00</t>
-  </si>
-  <si>
-    <t>345508.82</t>
-  </si>
-  <si>
-    <t>2975100.01</t>
-  </si>
-  <si>
-    <t>2179708.82</t>
-  </si>
-  <si>
-    <t>1111354.82</t>
-  </si>
-  <si>
-    <t>584394.44</t>
-  </si>
-  <si>
-    <t>99068.05</t>
-  </si>
-  <si>
-    <t>963310.30</t>
-  </si>
-  <si>
-    <t>2940268.13</t>
-  </si>
-  <si>
-    <t>3136072.23</t>
-  </si>
-  <si>
-    <t>2482355.45</t>
-  </si>
-  <si>
-    <t>898794.63</t>
-  </si>
-  <si>
-    <t>165141.00</t>
-  </si>
-  <si>
-    <t>54083.00</t>
-  </si>
-  <si>
-    <t>258798.00</t>
-  </si>
-  <si>
-    <t>2190761.61</t>
-  </si>
-  <si>
-    <t>1520083.75</t>
-  </si>
-  <si>
-    <t>1426513.26</t>
-  </si>
-  <si>
-    <t>390150.00</t>
-  </si>
-  <si>
-    <t>272000.00</t>
-  </si>
-  <si>
-    <t>55500.00</t>
-  </si>
-  <si>
-    <t>262709.16</t>
-  </si>
-  <si>
-    <t>935425.61</t>
-  </si>
-  <si>
-    <t>491144.02</t>
-  </si>
-  <si>
-    <t>166500.00</t>
-  </si>
-  <si>
-    <t>105450.00</t>
-  </si>
-  <si>
-    <t>40000.00</t>
-  </si>
-  <si>
-    <t>708137.89</t>
-  </si>
-  <si>
-    <t>3870215.18</t>
-  </si>
-  <si>
-    <t>3386172.68</t>
-  </si>
-  <si>
-    <t>2143643.02</t>
-  </si>
-  <si>
-    <t>1234352.76</t>
-  </si>
-  <si>
-    <t>189000.00</t>
-  </si>
-  <si>
-    <t>114156.00</t>
-  </si>
-  <si>
-    <t>246851.28</t>
-  </si>
-  <si>
-    <t>960875.75</t>
-  </si>
-  <si>
-    <t>730567.78</t>
-  </si>
-  <si>
-    <t>412254.40</t>
-  </si>
-  <si>
-    <t>115500.00</t>
-  </si>
-  <si>
-    <t>391708.00</t>
-  </si>
-  <si>
-    <t>302919.77</t>
-  </si>
-  <si>
-    <t>831569.56</t>
-  </si>
-  <si>
-    <t>700368.00</t>
-  </si>
-  <si>
-    <t>379610.00</t>
-  </si>
-  <si>
-    <t>72210.69</t>
-  </si>
-  <si>
-    <t>110000.00</t>
-  </si>
-  <si>
-    <t>212319.00</t>
-  </si>
-  <si>
-    <t>564828.18</t>
-  </si>
-  <si>
-    <t>5845085.93</t>
-  </si>
-  <si>
-    <t>4850888.44</t>
-  </si>
-  <si>
-    <t>2070594.11</t>
-  </si>
-  <si>
-    <t>1056355.86</t>
-  </si>
-  <si>
-    <t>486034.27</t>
-  </si>
-  <si>
-    <t>144897.65</t>
-  </si>
-  <si>
-    <t>3896548.28</t>
-  </si>
-  <si>
-    <t>24751186.24</t>
-  </si>
-  <si>
-    <t>19638645.84</t>
-  </si>
-  <si>
-    <t>9375066.87</t>
-  </si>
-  <si>
-    <t>4807769.20</t>
-  </si>
-  <si>
-    <t>2202881.18</t>
-  </si>
-  <si>
-    <t>1832380.94</t>
-  </si>
-  <si>
-    <t>113961.00</t>
-  </si>
-  <si>
-    <t>525445.16</t>
-  </si>
-  <si>
-    <t>249886.21</t>
-  </si>
-  <si>
-    <t>414666.88</t>
-  </si>
-  <si>
-    <t>348746.00</t>
-  </si>
-  <si>
-    <t>275000.00</t>
-  </si>
-  <si>
-    <t>25500.00</t>
-  </si>
-  <si>
-    <t>93074.00</t>
-  </si>
-  <si>
-    <t>701456.34</t>
-  </si>
-  <si>
-    <t>408140.60</t>
-  </si>
-  <si>
-    <t>155000.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>48150.00</t>
-  </si>
-  <si>
-    <t>102190.00</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>15500.00</t>
-  </si>
-  <si>
-    <t>440867.23</t>
-  </si>
-  <si>
-    <t>2808200.60</t>
-  </si>
-  <si>
-    <t>2266619.72</t>
-  </si>
-  <si>
-    <t>1677703.67</t>
-  </si>
-  <si>
-    <t>738277.46</t>
-  </si>
-  <si>
-    <t>237767.35</t>
-  </si>
-  <si>
-    <t>36000.00</t>
-  </si>
-  <si>
-    <t>1467462.36</t>
-  </si>
-  <si>
-    <t>6131138.03</t>
-  </si>
-  <si>
-    <t>4756053.80</t>
-  </si>
-  <si>
-    <t>2335051.39</t>
-  </si>
-  <si>
-    <t>1402591.48</t>
-  </si>
-  <si>
-    <t>470000.00</t>
-  </si>
-  <si>
-    <t>174265.00</t>
-  </si>
-  <si>
-    <t>2043094.56</t>
-  </si>
-  <si>
-    <t>8098844.86</t>
-  </si>
-  <si>
-    <t>4875640.32</t>
-  </si>
-  <si>
-    <t>2897048.05</t>
-  </si>
-  <si>
-    <t>1604490.25</t>
-  </si>
-  <si>
-    <t>380000.00</t>
-  </si>
-  <si>
-    <t>309739.00</t>
-  </si>
-  <si>
-    <t>666322.81</t>
-  </si>
-  <si>
-    <t>2961043.50</t>
-  </si>
-  <si>
-    <t>2479981.83</t>
-  </si>
-  <si>
-    <t>1713851.31</t>
-  </si>
-  <si>
-    <t>630787.72</t>
-  </si>
-  <si>
-    <t>42260.00</t>
-  </si>
-  <si>
-    <t>1695731.43</t>
-  </si>
-  <si>
-    <t>7755701.35</t>
-  </si>
-  <si>
-    <t>5438573.09</t>
-  </si>
-  <si>
-    <t>3666841.02</t>
-  </si>
-  <si>
-    <t>1420158.00</t>
-  </si>
-  <si>
-    <t>453173.00</t>
-  </si>
-  <si>
-    <t>254114.22</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
   <si>
     <t>01</t>
@@ -1404,13 +1404,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>302</v>
@@ -1433,13 +1433,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
         <v>302</v>
@@ -1462,13 +1462,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>302</v>
@@ -1491,13 +1491,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>302</v>
@@ -1520,19 +1520,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>326</v>
@@ -1549,19 +1549,19 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>302</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
         <v>327</v>
@@ -1578,13 +1578,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>302</v>
@@ -1607,13 +1607,13 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
         <v>303</v>
@@ -1636,13 +1636,13 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
         <v>303</v>
@@ -1665,13 +1665,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
         <v>303</v>
@@ -1694,13 +1694,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
         <v>303</v>
@@ -1723,19 +1723,19 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
         <v>303</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>326</v>
@@ -1752,13 +1752,13 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
         <v>303</v>
@@ -1781,13 +1781,13 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
         <v>304</v>
@@ -1810,13 +1810,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
         <v>304</v>
@@ -1839,13 +1839,13 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
         <v>304</v>
@@ -1868,13 +1868,13 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
         <v>304</v>
@@ -1897,19 +1897,19 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
         <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
         <v>326</v>
@@ -1926,19 +1926,19 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
         <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
         <v>327</v>
@@ -1952,16 +1952,16 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
         <v>304</v>
@@ -1981,16 +1981,16 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
         <v>305</v>
@@ -2010,16 +2010,16 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>305</v>
@@ -2039,16 +2039,16 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>305</v>
@@ -2068,16 +2068,16 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
         <v>305</v>
@@ -2097,22 +2097,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
         <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
         <v>326</v>
@@ -2126,22 +2126,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>305</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
         <v>327</v>
@@ -2155,16 +2155,16 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>305</v>
@@ -2184,16 +2184,16 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
         <v>306</v>
@@ -2213,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
         <v>306</v>
@@ -2242,16 +2242,16 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
         <v>306</v>
@@ -2271,16 +2271,16 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
         <v>306</v>
@@ -2303,19 +2303,19 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
         <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
         <v>326</v>
@@ -2329,16 +2329,16 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
         <v>306</v>
@@ -2358,16 +2358,16 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
         <v>307</v>
@@ -2387,16 +2387,16 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>307</v>
@@ -2416,16 +2416,16 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>307</v>
@@ -2445,16 +2445,16 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
@@ -2474,22 +2474,22 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
         <v>307</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
         <v>326</v>
@@ -2503,22 +2503,22 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
         <v>307</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s">
         <v>327</v>
@@ -2532,16 +2532,16 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
         <v>307</v>
@@ -2561,13 +2561,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
         <v>295</v>
@@ -2590,13 +2590,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
         <v>295</v>
@@ -2619,13 +2619,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
         <v>295</v>
@@ -2648,13 +2648,13 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
         <v>295</v>
@@ -2677,13 +2677,13 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
         <v>295</v>
@@ -2692,7 +2692,7 @@
         <v>308</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I46" t="s">
         <v>326</v>
@@ -2706,13 +2706,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
         <v>295</v>
@@ -2735,13 +2735,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
         <v>296</v>
@@ -2764,13 +2764,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
         <v>296</v>
@@ -2793,13 +2793,13 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
         <v>296</v>
@@ -2822,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
         <v>296</v>
@@ -2851,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F52" t="s">
         <v>296</v>
@@ -2866,7 +2866,7 @@
         <v>309</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
         <v>326</v>
@@ -2880,13 +2880,13 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
         <v>296</v>
@@ -2895,7 +2895,7 @@
         <v>309</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
         <v>327</v>
@@ -2909,13 +2909,13 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
         <v>296</v>
@@ -2938,16 +2938,16 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s">
         <v>310</v>
@@ -2967,16 +2967,16 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
         <v>310</v>
@@ -2996,16 +2996,16 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
         <v>310</v>
@@ -3025,16 +3025,16 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
         <v>310</v>
@@ -3054,22 +3054,22 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>310</v>
       </c>
       <c r="H59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I59" t="s">
         <v>326</v>
@@ -3083,22 +3083,22 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>310</v>
       </c>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s">
         <v>327</v>
@@ -3112,16 +3112,16 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>310</v>
@@ -3141,16 +3141,16 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
         <v>311</v>
@@ -3170,16 +3170,16 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
         <v>311</v>
@@ -3199,16 +3199,16 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
         <v>311</v>
@@ -3228,16 +3228,16 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G65" t="s">
         <v>311</v>
@@ -3257,22 +3257,22 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
         <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
         <v>311</v>
       </c>
       <c r="H66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I66" t="s">
         <v>326</v>
@@ -3286,22 +3286,22 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
         <v>311</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
         <v>327</v>
@@ -3315,16 +3315,16 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
         <v>311</v>
@@ -3344,13 +3344,13 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
         <v>297</v>
@@ -3373,13 +3373,13 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
         <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
         <v>297</v>
@@ -3408,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
         <v>297</v>
@@ -3431,13 +3431,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F72" t="s">
         <v>297</v>
@@ -3460,13 +3460,13 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" t="s">
         <v>297</v>
@@ -3475,7 +3475,7 @@
         <v>312</v>
       </c>
       <c r="H73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I73" t="s">
         <v>326</v>
@@ -3489,13 +3489,13 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
         <v>297</v>
@@ -3504,7 +3504,7 @@
         <v>312</v>
       </c>
       <c r="H74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I74" t="s">
         <v>327</v>
@@ -3518,13 +3518,13 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
         <v>297</v>
@@ -3547,13 +3547,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
         <v>298</v>
@@ -3576,13 +3576,13 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
         <v>298</v>
@@ -3605,13 +3605,13 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
         <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
         <v>298</v>
@@ -3634,13 +3634,13 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
         <v>298</v>
@@ -3663,13 +3663,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
         <v>298</v>
@@ -3678,7 +3678,7 @@
         <v>313</v>
       </c>
       <c r="H80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I80" t="s">
         <v>326</v>
@@ -3692,13 +3692,13 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" t="s">
         <v>298</v>
@@ -3721,13 +3721,13 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
         <v>299</v>
@@ -3750,13 +3750,13 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F83" t="s">
         <v>299</v>
@@ -3779,13 +3779,13 @@
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
         <v>299</v>
@@ -3808,16 +3808,16 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
         <v>315</v>
@@ -3837,16 +3837,16 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86" t="s">
         <v>315</v>
@@ -3866,16 +3866,16 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G87" t="s">
         <v>315</v>
@@ -3895,16 +3895,16 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
         <v>315</v>
@@ -3924,22 +3924,22 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G89" t="s">
         <v>315</v>
       </c>
       <c r="H89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I89" t="s">
         <v>326</v>
@@ -3953,22 +3953,22 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G90" t="s">
         <v>315</v>
       </c>
       <c r="H90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I90" t="s">
         <v>327</v>
@@ -3982,16 +3982,16 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G91" t="s">
         <v>315</v>
@@ -4011,13 +4011,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -4040,13 +4040,13 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
@@ -4069,13 +4069,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -4098,13 +4098,13 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -4127,13 +4127,13 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -4142,7 +4142,7 @@
         <v>316</v>
       </c>
       <c r="H96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I96" t="s">
         <v>326</v>
@@ -4156,13 +4156,13 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
         <v>77</v>
       </c>
-      <c r="D97" t="s">
-        <v>76</v>
-      </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -4171,7 +4171,7 @@
         <v>316</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I97" t="s">
         <v>327</v>
@@ -4185,13 +4185,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -4214,13 +4214,13 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
         <v>300</v>
@@ -4243,13 +4243,13 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
         <v>300</v>
@@ -4272,13 +4272,13 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F101" t="s">
         <v>300</v>
@@ -4301,13 +4301,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D102" t="s">
         <v>167</v>
       </c>
       <c r="E102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F102" t="s">
         <v>300</v>
@@ -4330,13 +4330,13 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F103" t="s">
         <v>300</v>
@@ -4345,7 +4345,7 @@
         <v>317</v>
       </c>
       <c r="H103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I103" t="s">
         <v>326</v>
@@ -4359,13 +4359,13 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F104" t="s">
         <v>300</v>
@@ -4374,7 +4374,7 @@
         <v>317</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I104" t="s">
         <v>327</v>
@@ -4388,13 +4388,13 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
         <v>168</v>
       </c>
       <c r="E105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F105" t="s">
         <v>300</v>
@@ -4417,16 +4417,16 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G106" t="s">
         <v>318</v>
@@ -4446,16 +4446,16 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G107" t="s">
         <v>318</v>
@@ -4475,16 +4475,16 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G108" t="s">
         <v>318</v>
@@ -4504,16 +4504,16 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G109" t="s">
         <v>318</v>
@@ -4533,22 +4533,22 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G110" t="s">
         <v>318</v>
       </c>
       <c r="H110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I110" t="s">
         <v>326</v>
@@ -4562,16 +4562,16 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G111" t="s">
         <v>318</v>
@@ -4591,13 +4591,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F112" t="s">
         <v>301</v>
@@ -4620,13 +4620,13 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F113" t="s">
         <v>301</v>
@@ -4649,13 +4649,13 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F114" t="s">
         <v>301</v>
@@ -4678,13 +4678,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F115" t="s">
         <v>301</v>
@@ -4707,13 +4707,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F116" t="s">
         <v>301</v>
@@ -4722,7 +4722,7 @@
         <v>319</v>
       </c>
       <c r="H116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I116" t="s">
         <v>326</v>
@@ -4736,13 +4736,13 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F117" t="s">
         <v>301</v>
@@ -4751,7 +4751,7 @@
         <v>319</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I117" t="s">
         <v>327</v>
@@ -4765,13 +4765,13 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F118" t="s">
         <v>301</v>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="327">
   <si>
     <t>dispositif</t>
   </si>
@@ -118,10 +118,10 @@
     <t>173</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>9</t>
@@ -268,9 +268,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>122</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>77</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
@@ -343,7 +337,7 @@
     <t>760</t>
   </si>
   <si>
-    <t>271</t>
+    <t>272</t>
   </si>
   <si>
     <t>88</t>
@@ -610,10 +604,10 @@
     <t>1520083.75</t>
   </si>
   <si>
-    <t>1426513.26</t>
-  </si>
-  <si>
-    <t>390150.00</t>
+    <t>1468684.26</t>
+  </si>
+  <si>
+    <t>394329.00</t>
   </si>
   <si>
     <t>272000.00</t>
@@ -880,7 +874,7 @@
     <t>5438573.09</t>
   </si>
   <si>
-    <t>3666841.02</t>
+    <t>3711841.02</t>
   </si>
   <si>
     <t>1420158.00</t>
@@ -1404,22 +1398,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" t="s">
         <v>320</v>
-      </c>
-      <c r="I2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1433,22 +1427,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1462,22 +1456,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1491,22 +1485,22 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1520,22 +1514,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
       <c r="G6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1552,19 +1546,19 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1578,22 +1572,22 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1607,22 +1601,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" t="s">
         <v>320</v>
-      </c>
-      <c r="I9" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1636,22 +1630,22 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1665,22 +1659,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1694,22 +1688,22 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1723,22 +1717,22 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1752,22 +1746,22 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1781,22 +1775,22 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" t="s">
         <v>320</v>
-      </c>
-      <c r="I15" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1810,22 +1804,22 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" t="s">
         <v>293</v>
       </c>
-      <c r="G16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" t="s">
-        <v>295</v>
-      </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1839,22 +1833,22 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1868,22 +1862,22 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1897,22 +1891,22 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1929,19 +1923,19 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
         <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1958,19 +1952,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1984,22 +1978,22 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" t="s">
         <v>320</v>
-      </c>
-      <c r="I22" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2013,22 +2007,22 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
         <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2042,22 +2036,22 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
         <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2071,22 +2065,22 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
         <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2100,22 +2094,22 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
         <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2132,19 +2126,19 @@
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
         <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2161,19 +2155,19 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2187,22 +2181,22 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I29" t="s">
         <v>320</v>
-      </c>
-      <c r="I29" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2216,22 +2210,22 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2248,19 +2242,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2274,22 +2268,22 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" t="s">
         <v>294</v>
       </c>
-      <c r="G32" t="s">
-        <v>306</v>
-      </c>
-      <c r="H32" t="s">
-        <v>296</v>
-      </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2303,22 +2297,22 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2335,19 +2329,19 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2361,22 +2355,22 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I35" t="s">
         <v>320</v>
-      </c>
-      <c r="I35" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2390,22 +2384,22 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
         <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2419,22 +2413,22 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2448,22 +2442,22 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2480,19 +2474,19 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2506,22 +2500,22 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
         <v>78</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2538,19 +2532,19 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2564,22 +2558,22 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
+        <v>318</v>
+      </c>
+      <c r="I42" t="s">
         <v>320</v>
-      </c>
-      <c r="I42" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2593,22 +2587,22 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2622,22 +2616,22 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2651,22 +2645,22 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2680,22 +2674,22 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2709,22 +2703,22 @@
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2741,19 +2735,19 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s">
+        <v>318</v>
+      </c>
+      <c r="I48" t="s">
         <v>320</v>
-      </c>
-      <c r="I48" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2767,22 +2761,22 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2796,22 +2790,22 @@
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" t="s">
         <v>296</v>
       </c>
-      <c r="G50" t="s">
-        <v>309</v>
-      </c>
-      <c r="H50" t="s">
-        <v>298</v>
-      </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2825,22 +2819,22 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2854,22 +2848,22 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2886,19 +2880,19 @@
         <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2912,22 +2906,22 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2944,19 +2938,19 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H55" t="s">
+        <v>318</v>
+      </c>
+      <c r="I55" t="s">
         <v>320</v>
-      </c>
-      <c r="I55" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2970,22 +2964,22 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2999,22 +2993,22 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3028,22 +3022,22 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3057,22 +3051,22 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3089,19 +3083,19 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H60" t="s">
         <v>78</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3115,22 +3109,22 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3144,22 +3138,22 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H62" t="s">
+        <v>318</v>
+      </c>
+      <c r="I62" t="s">
         <v>320</v>
-      </c>
-      <c r="I62" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3173,22 +3167,22 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3202,22 +3196,22 @@
         <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s">
         <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3231,22 +3225,22 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
         <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3260,22 +3254,22 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
         <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3292,19 +3286,19 @@
         <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H67" t="s">
         <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3318,22 +3312,22 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
         <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3350,19 +3344,19 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H69" t="s">
+        <v>318</v>
+      </c>
+      <c r="I69" t="s">
         <v>320</v>
-      </c>
-      <c r="I69" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3376,22 +3370,22 @@
         <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3408,19 +3402,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H71" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I71" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3434,22 +3428,22 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3466,19 +3460,19 @@
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H73" t="s">
         <v>58</v>
       </c>
       <c r="I73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3495,19 +3489,19 @@
         <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H74" t="s">
         <v>78</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3524,19 +3518,19 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3553,19 +3547,19 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H76" t="s">
+        <v>318</v>
+      </c>
+      <c r="I76" t="s">
         <v>320</v>
-      </c>
-      <c r="I76" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3579,22 +3573,22 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3608,22 +3602,22 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3640,19 +3634,19 @@
         <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3669,19 +3663,19 @@
         <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H80" t="s">
         <v>58</v>
       </c>
       <c r="I80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3698,19 +3692,19 @@
         <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F81" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I81" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3721,25 +3715,25 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H82" t="s">
+        <v>318</v>
+      </c>
+      <c r="I82" t="s">
         <v>320</v>
-      </c>
-      <c r="I82" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3756,19 +3750,19 @@
         <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3785,19 +3779,19 @@
         <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3808,25 +3802,25 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
+        <v>318</v>
+      </c>
+      <c r="I85" t="s">
         <v>320</v>
-      </c>
-      <c r="I85" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3837,25 +3831,25 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3866,25 +3860,25 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3895,25 +3889,25 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3927,22 +3921,22 @@
         <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
       </c>
       <c r="I89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3959,19 +3953,19 @@
         <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H90" t="s">
         <v>78</v>
       </c>
       <c r="I90" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3988,19 +3982,19 @@
         <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4011,25 +4005,25 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H92" t="s">
+        <v>318</v>
+      </c>
+      <c r="I92" t="s">
         <v>320</v>
-      </c>
-      <c r="I92" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4040,25 +4034,25 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4069,25 +4063,25 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I94" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4098,25 +4092,25 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H95" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4127,25 +4121,25 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
       </c>
       <c r="I96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4162,19 +4156,19 @@
         <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H97" t="s">
         <v>78</v>
       </c>
       <c r="I97" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4185,25 +4179,25 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4214,25 +4208,25 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H99" t="s">
+        <v>318</v>
+      </c>
+      <c r="I99" t="s">
         <v>320</v>
-      </c>
-      <c r="I99" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4243,25 +4237,25 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I100" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4272,25 +4266,25 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H101" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4301,25 +4295,25 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H102" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4330,25 +4324,25 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" t="s">
         <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G103" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
       </c>
       <c r="I103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4365,19 +4359,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F104" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H104" t="s">
         <v>78</v>
       </c>
       <c r="I104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4388,25 +4382,25 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H105" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I105" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4417,25 +4411,25 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
+        <v>316</v>
+      </c>
+      <c r="H106" t="s">
         <v>318</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>320</v>
-      </c>
-      <c r="I106" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4446,25 +4440,25 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H107" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I107" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4475,25 +4469,25 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I108" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4504,25 +4498,25 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G109" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I109" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4533,25 +4527,25 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H110" t="s">
         <v>58</v>
       </c>
       <c r="I110" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4568,19 +4562,19 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4591,25 +4585,25 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H112" t="s">
+        <v>318</v>
+      </c>
+      <c r="I112" t="s">
         <v>320</v>
-      </c>
-      <c r="I112" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4620,25 +4614,25 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F113" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4649,25 +4643,25 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H114" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4678,25 +4672,25 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F115" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H115" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4707,25 +4701,25 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G116" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H116" t="s">
         <v>58</v>
       </c>
       <c r="I116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4742,19 +4736,19 @@
         <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
         <v>78</v>
       </c>
       <c r="I117" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4765,25 +4759,25 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F118" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G118" t="s">
+        <v>317</v>
+      </c>
+      <c r="H118" t="s">
         <v>319</v>
       </c>
-      <c r="H118" t="s">
-        <v>321</v>
-      </c>
       <c r="I118" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="325">
   <si>
     <t>dispositif</t>
   </si>
@@ -49,7 +49,7 @@
     <t>VOLET2</t>
   </si>
   <si>
-    <t>296</t>
+    <t>298</t>
   </si>
   <si>
     <t>1469</t>
@@ -64,7 +64,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>72</t>
@@ -346,7 +346,7 @@
     <t>110</t>
   </si>
   <si>
-    <t>274</t>
+    <t>276</t>
   </si>
   <si>
     <t>1331</t>
@@ -433,9 +433,6 @@
     <t>90</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
     <t>188</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
     <t>1012</t>
   </si>
   <si>
@@ -535,7 +529,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>1124197.69</t>
+    <t>1129979.19</t>
   </si>
   <si>
     <t>7838977.62</t>
@@ -550,7 +544,7 @@
     <t>2007363.53</t>
   </si>
   <si>
-    <t>1227136.29</t>
+    <t>1272136.29</t>
   </si>
   <si>
     <t>153188.00</t>
@@ -1401,19 +1395,19 @@
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
         <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" t="s">
         <v>318</v>
-      </c>
-      <c r="I2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1430,19 +1424,19 @@
         <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
         <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1459,19 +1453,19 @@
         <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1488,19 +1482,19 @@
         <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
         <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1517,19 +1511,19 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1546,19 +1540,19 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
         <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1575,19 +1569,19 @@
         <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
         <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1604,19 +1598,19 @@
         <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" t="s">
         <v>318</v>
-      </c>
-      <c r="I9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1633,19 +1627,19 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1662,19 +1656,19 @@
         <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1691,19 +1685,19 @@
         <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1720,19 +1714,19 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1749,19 +1743,19 @@
         <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1778,19 +1772,19 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15" t="s">
         <v>318</v>
-      </c>
-      <c r="I15" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1807,19 +1801,19 @@
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" t="s">
         <v>291</v>
       </c>
-      <c r="G16" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" t="s">
-        <v>293</v>
-      </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1836,19 +1830,19 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1865,19 +1859,19 @@
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1894,19 +1888,19 @@
         <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1923,19 +1917,19 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H20" t="s">
         <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1952,19 +1946,19 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1981,19 +1975,19 @@
         <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H22" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" t="s">
         <v>318</v>
-      </c>
-      <c r="I22" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2010,19 +2004,19 @@
         <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
         <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2039,19 +2033,19 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
         <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2068,19 +2062,19 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
         <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2097,19 +2091,19 @@
         <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
         <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2126,19 +2120,19 @@
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27" t="s">
         <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2155,19 +2149,19 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
         <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2184,19 +2178,19 @@
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" t="s">
         <v>318</v>
-      </c>
-      <c r="I29" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2213,19 +2207,19 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2242,19 +2236,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2271,19 +2265,19 @@
         <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>302</v>
+      </c>
+      <c r="H32" t="s">
         <v>292</v>
       </c>
-      <c r="G32" t="s">
-        <v>304</v>
-      </c>
-      <c r="H32" t="s">
-        <v>294</v>
-      </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2300,19 +2294,19 @@
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2329,19 +2323,19 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2358,19 +2352,19 @@
         <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35" t="s">
         <v>318</v>
-      </c>
-      <c r="I35" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2387,19 +2381,19 @@
         <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
         <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2416,19 +2410,19 @@
         <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2445,19 +2439,19 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2474,19 +2468,19 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2503,19 +2497,19 @@
         <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H40" t="s">
         <v>78</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2532,19 +2526,19 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2561,19 +2555,19 @@
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H42" t="s">
+        <v>316</v>
+      </c>
+      <c r="I42" t="s">
         <v>318</v>
-      </c>
-      <c r="I42" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2590,19 +2584,19 @@
         <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2619,19 +2613,19 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2648,19 +2642,19 @@
         <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2677,19 +2671,19 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2706,19 +2700,19 @@
         <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2735,19 +2729,19 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H48" t="s">
+        <v>316</v>
+      </c>
+      <c r="I48" t="s">
         <v>318</v>
-      </c>
-      <c r="I48" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2764,19 +2758,19 @@
         <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2793,19 +2787,19 @@
         <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" t="s">
         <v>294</v>
       </c>
-      <c r="G50" t="s">
-        <v>307</v>
-      </c>
-      <c r="H50" t="s">
-        <v>296</v>
-      </c>
       <c r="I50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2819,22 +2813,22 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2848,22 +2842,22 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2880,19 +2874,19 @@
         <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H53" t="s">
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2906,22 +2900,22 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2938,19 +2932,19 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H55" t="s">
+        <v>316</v>
+      </c>
+      <c r="I55" t="s">
         <v>318</v>
-      </c>
-      <c r="I55" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2964,22 +2958,22 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2993,22 +2987,22 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3022,22 +3016,22 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3054,19 +3048,19 @@
         <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3083,19 +3077,19 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H60" t="s">
         <v>78</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3109,22 +3103,22 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3138,22 +3132,22 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H62" t="s">
+        <v>316</v>
+      </c>
+      <c r="I62" t="s">
         <v>318</v>
-      </c>
-      <c r="I62" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3167,22 +3161,22 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3196,22 +3190,22 @@
         <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F64" t="s">
         <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3225,22 +3219,22 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F65" t="s">
         <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3254,22 +3248,22 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F66" t="s">
         <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3286,19 +3280,19 @@
         <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F67" t="s">
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H67" t="s">
         <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3312,22 +3306,22 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
         <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3344,19 +3338,19 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H69" t="s">
+        <v>316</v>
+      </c>
+      <c r="I69" t="s">
         <v>318</v>
-      </c>
-      <c r="I69" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3370,22 +3364,22 @@
         <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3402,19 +3396,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I71" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3431,19 +3425,19 @@
         <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3460,19 +3454,19 @@
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H73" t="s">
         <v>58</v>
       </c>
       <c r="I73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3489,19 +3483,19 @@
         <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H74" t="s">
         <v>78</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3518,19 +3512,19 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3547,19 +3541,19 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H76" t="s">
+        <v>316</v>
+      </c>
+      <c r="I76" t="s">
         <v>318</v>
-      </c>
-      <c r="I76" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3573,22 +3567,22 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3602,22 +3596,22 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3634,19 +3628,19 @@
         <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F79" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3663,19 +3657,19 @@
         <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F80" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H80" t="s">
         <v>58</v>
       </c>
       <c r="I80" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3692,19 +3686,19 @@
         <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G81" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3721,19 +3715,19 @@
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H82" t="s">
+        <v>316</v>
+      </c>
+      <c r="I82" t="s">
         <v>318</v>
-      </c>
-      <c r="I82" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3750,19 +3744,19 @@
         <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G83" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I83" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3779,19 +3773,19 @@
         <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3805,22 +3799,22 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F85" t="s">
         <v>103</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H85" t="s">
+        <v>316</v>
+      </c>
+      <c r="I85" t="s">
         <v>318</v>
-      </c>
-      <c r="I85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3834,22 +3828,22 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F86" t="s">
         <v>103</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3863,22 +3857,22 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
         <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I87" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3895,19 +3889,19 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
         <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3924,19 +3918,19 @@
         <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F89" t="s">
         <v>103</v>
       </c>
       <c r="G89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
       </c>
       <c r="I89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3953,19 +3947,19 @@
         <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F90" t="s">
         <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H90" t="s">
         <v>78</v>
       </c>
       <c r="I90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3982,19 +3976,19 @@
         <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F91" t="s">
         <v>103</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I91" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4008,22 +4002,22 @@
         <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H92" t="s">
+        <v>316</v>
+      </c>
+      <c r="I92" t="s">
         <v>318</v>
-      </c>
-      <c r="I92" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4037,22 +4031,22 @@
         <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I93" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4066,22 +4060,22 @@
         <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4095,22 +4089,22 @@
         <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H95" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4124,22 +4118,22 @@
         <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
       </c>
       <c r="I96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4156,19 +4150,19 @@
         <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H97" t="s">
         <v>78</v>
       </c>
       <c r="I97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4182,22 +4176,22 @@
         <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4211,22 +4205,22 @@
         <v>94</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F99" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H99" t="s">
+        <v>316</v>
+      </c>
+      <c r="I99" t="s">
         <v>318</v>
-      </c>
-      <c r="I99" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4240,22 +4234,22 @@
         <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4272,19 +4266,19 @@
         <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4298,22 +4292,22 @@
         <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F102" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H102" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4330,19 +4324,19 @@
         <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
       </c>
       <c r="I103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4359,19 +4353,19 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H104" t="s">
         <v>78</v>
       </c>
       <c r="I104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4385,22 +4379,22 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I105" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4417,19 +4411,19 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G106" t="s">
+        <v>314</v>
+      </c>
+      <c r="H106" t="s">
         <v>316</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>318</v>
-      </c>
-      <c r="I106" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4443,22 +4437,22 @@
         <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H107" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I107" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4472,22 +4466,22 @@
         <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4504,19 +4498,19 @@
         <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I109" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4533,19 +4527,19 @@
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H110" t="s">
         <v>58</v>
       </c>
       <c r="I110" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4562,19 +4556,19 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4588,22 +4582,22 @@
         <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H112" t="s">
+        <v>316</v>
+      </c>
+      <c r="I112" t="s">
         <v>318</v>
-      </c>
-      <c r="I112" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4617,22 +4611,22 @@
         <v>105</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F113" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H113" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I113" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4646,22 +4640,22 @@
         <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4675,22 +4669,22 @@
         <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G115" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H115" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4704,22 +4698,22 @@
         <v>108</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H116" t="s">
         <v>58</v>
       </c>
       <c r="I116" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4736,19 +4730,19 @@
         <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H117" t="s">
         <v>78</v>
       </c>
       <c r="I117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4765,19 +4759,19 @@
         <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F118" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G118" t="s">
+        <v>315</v>
+      </c>
+      <c r="H118" t="s">
         <v>317</v>
       </c>
-      <c r="H118" t="s">
-        <v>319</v>
-      </c>
       <c r="I118" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
